--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAC6E8F-3428-AB4A-957C-044A834978F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFBC162-7309-0348-88C6-1FAB79435AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,9 +202,6 @@
     <t>battery capacity, Sodium-ion, SiB</t>
   </si>
   <si>
-    <t>battery, Na-NiCl</t>
-  </si>
-  <si>
     <t>market for battery, NaCl</t>
   </si>
   <si>
@@ -266,6 +263,9 @@
   </si>
   <si>
     <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LMO battery. Specific energy density in 2020: 0.13 kWh/kg cell. Battery management (BoP) mass share: 13%. Battery energy density in 2020: 0.114 kWh/kg battery. Battery mass per kWh: 18.4 kg. Lifetime: 10'000 cycles. Source for parameters: Life cycle assessment of battery electric buses. Transportation Research Part D: Transport and Environment. Linda Ager-Wick Ellingsen, Rebecca Jayne Thorne, Julia Wind, Erik Figenbaum, Mia Romare and Anders Nordelöf.</t>
+  </si>
+  <si>
+    <t>battery capacity, Na-NiCl</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <f>1-0.27</f>
@@ -795,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -832,7 +832,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <f>1-0.27</f>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -958,7 +958,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33">
         <f>1-0.27</f>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1084,7 +1084,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <f>1-0.29</f>
@@ -1157,7 +1157,7 @@
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1210,7 +1210,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <f>1-0.293</f>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <f>1-0.36</f>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -1449,7 +1449,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -1462,7 +1462,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B81">
         <f>1-0.13</f>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="3">
         <f>1/(32/280)</f>
@@ -1535,7 +1535,7 @@
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -1588,7 +1588,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B93">
         <f>1-0.25</f>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -1714,7 +1714,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B105">
         <f>1-0.45</f>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -1840,7 +1840,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B117">
         <f>1-0.25</f>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -1953,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -1969,7 +1969,7 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -2029,12 +2029,12 @@
       </c>
       <c r="G132" t="str">
         <f>B127</f>
-        <v>battery, Na-NiCl</v>
+        <v>battery capacity, Na-NiCl</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B133" s="3">
         <f>1/0.116</f>
@@ -2050,7 +2050,7 @@
         <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFBC162-7309-0348-88C6-1FAB79435AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E8F615-897A-B34E-98C7-322C75FB724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23260" yWindow="3580" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$O$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$O$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="78">
   <si>
     <t>Activity</t>
   </si>
@@ -166,12 +166,6 @@
     <t>battery, Li-ion, LTO</t>
   </si>
   <si>
-    <t>market for battery capacity, Li-ion, Li-S</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, Li-S</t>
-  </si>
-  <si>
     <t>market for battery, Li-sulfur, Li-S</t>
   </si>
   <si>
@@ -250,12 +244,6 @@
     <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Lithium-oxygen Li-O2 battery. Specific energy density in 2020: 0.360 kWh/kg cell. Battery management (BoP) mass share: 45%. Battery energy density in 2020: 0.238 kWh/kg battery (excl. O2 tanks). System energy density in 2020: 0.198 kWh/kg battery (incl. O2 tanks). Battery mass per kWh: 5.05 kg. Battery lifetime: 305 kWh/kg (1.76 MJ/km x 2e5 km / 321 kg). Source for parameters: Originally from Wang, F., Deng, Y., &amp; Yuan, C. (2020). Life cycle assessment of lithium oxygen battery for electric vehicles. Journal of Cleaner Production, 264, 121339. https://doi.org/10.1016/j.jclepro.2020.121339</t>
   </si>
   <si>
-    <t>market for battery capacity, Li-ion, LMO</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, LMO</t>
-  </si>
-  <si>
     <t>market for battery, Li-ion, LiMn2O4, rechargeable, prismatic</t>
   </si>
   <si>
@@ -266,6 +254,24 @@
   </si>
   <si>
     <t>battery capacity, Na-NiCl</t>
+  </si>
+  <si>
+    <t>market for used Li-ion battery</t>
+  </si>
+  <si>
+    <t>used Li-ion battery</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, LiMn2O4</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, LiMn2O4</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-sulfur, Li-S</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-sulfur, Li-S</t>
   </si>
 </sst>
 </file>
@@ -637,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -670,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -707,7 +713,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <f>1-0.27</f>
@@ -782,1279 +788,1509 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="str">
-        <f>B15</f>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="str">
+        <f>B16</f>
         <v>market for battery capacity, Li-ion, NMC111</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="str">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <f>B21</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="str">
         <f>B20</f>
-        <v>kilowatt hour</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="str">
-        <f>B19</f>
         <v>battery capacity, Li-ion, NMC111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3">
         <f>1/(0.197*73%)</f>
         <v>6.9536193588762956</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
         <v>14</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3">
+        <f>-1*B26</f>
+        <v>-6.9536193588762956</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="str">
-        <f>B27</f>
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="str">
+        <f>B29</f>
         <v>market for battery capacity, Li-ion, NMC622</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="str">
-        <f>B32</f>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="str">
+        <f>B34</f>
         <v>kilowatt hour</v>
       </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
         <v>13</v>
       </c>
-      <c r="F36" t="str">
-        <f>B31</f>
+      <c r="F38" t="str">
+        <f>B33</f>
         <v>battery capacity, Li-ion, NMC622</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B39" s="3">
         <f>1/(0.2*73%)</f>
         <v>6.8493150684931514</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
         <v>14</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F39" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="B40" s="3">
+        <f>-1*B39</f>
+        <v>-6.8493150684931514</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48">
         <f>1-0.29</f>
         <v>0.71</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="str">
-        <f>B39</f>
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="str">
+        <f>B42</f>
         <v>market for battery capacity, Li-ion, NMC811</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="str">
-        <f>B44</f>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="str">
+        <f>B47</f>
         <v>kilowatt hour</v>
       </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
         <v>13</v>
       </c>
-      <c r="F48" t="str">
-        <f>B43</f>
+      <c r="F51" t="str">
+        <f>B46</f>
         <v>battery capacity, Li-ion, NMC811</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B52" s="3">
         <f>1/(0.209*71%)</f>
         <v>6.7389985848102976</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>7</v>
       </c>
-      <c r="D49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
         <v>14</v>
       </c>
-      <c r="F49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>60</v>
+      <c r="F52" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>34</v>
+        <v>72</v>
+      </c>
+      <c r="B53" s="3">
+        <f>-1*B52</f>
+        <v>-6.7389985848102976</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
         <f>1-0.293</f>
         <v>0.70700000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="str">
-        <f>B51</f>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="str">
+        <f>B55</f>
         <v>market for battery capacity, Li-ion, NCA</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="str">
-        <f>B56</f>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="str">
+        <f>B60</f>
         <v>kilowatt hour</v>
       </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
         <v>13</v>
       </c>
-      <c r="F60" t="str">
-        <f>B55</f>
+      <c r="F64" t="str">
+        <f>B59</f>
         <v>battery capacity, Li-ion, NCA</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B65" s="3">
         <f>1/(0.224*70.7%)</f>
         <v>6.3144069508991709</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C65" t="s">
         <v>7</v>
       </c>
-      <c r="D61" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
         <v>14</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F65" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>15</v>
+        <v>72</v>
+      </c>
+      <c r="B66" s="3">
+        <f>-1*B65</f>
+        <v>-6.3144069508991709</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74">
         <f>1-0.36</f>
         <v>0.64</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="str">
-        <f>B63</f>
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="str">
+        <f>B68</f>
         <v>market for battery capacity, Li-ion, LTO</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="str">
-        <f>B68</f>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="str">
+        <f>B73</f>
         <v>kilowatt hour</v>
       </c>
-      <c r="D72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
         <v>13</v>
       </c>
-      <c r="F72" t="str">
-        <f>B67</f>
+      <c r="F77" t="str">
+        <f>B72</f>
         <v>battery capacity, Li-ion, LTO</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B78" s="3">
         <f>1/(0.085*64%)</f>
         <v>18.382352941176471</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C78" t="s">
         <v>7</v>
       </c>
-      <c r="D73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
         <v>14</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F78" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="3">
+        <f>-1*B78</f>
+        <v>-18.382352941176471</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>5</v>
       </c>
-      <c r="B79" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="B85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>6</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B86" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>66</v>
-      </c>
-      <c r="B81">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87">
         <f>1-0.13</f>
         <v>0.87</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="str">
-        <f>B75</f>
-        <v>market for battery capacity, Li-ion, LMO</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84" t="str">
-        <f>B80</f>
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="str">
+        <f>B81</f>
+        <v>market for battery capacity, Li-ion, LiMn2O4</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="str">
+        <f>B86</f>
         <v>kilowatt hour</v>
       </c>
-      <c r="D84" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
         <v>13</v>
       </c>
-      <c r="F84" t="str">
-        <f>B79</f>
-        <v>battery capacity, Li-ion, LMO</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85" s="3">
+      <c r="F90" t="str">
+        <f>B85</f>
+        <v>battery capacity, Li-ion, LiMn2O4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="3">
         <f>1/(32/280)</f>
         <v>8.75</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C91" t="s">
         <v>7</v>
       </c>
-      <c r="D85" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
         <v>14</v>
       </c>
-      <c r="F85" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" t="s">
-        <v>43</v>
+      <c r="F91" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>72</v>
+      </c>
+      <c r="B92" s="3">
+        <f>-1*B91</f>
+        <v>-8.75</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>6</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B99" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100">
         <f>1-0.25</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="str">
-        <f>B87</f>
-        <v>market for battery capacity, Li-ion, Li-S</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96" t="str">
-        <f>B92</f>
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="str">
+        <f>B94</f>
+        <v>market for battery capacity, Li-sulfur, Li-S</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="str">
+        <f>B99</f>
         <v>kilowatt hour</v>
       </c>
-      <c r="D96" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
         <v>13</v>
       </c>
-      <c r="F96" t="str">
-        <f>B91</f>
-        <v>battery capacity, Li-ion, Li-S</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" s="3">
+      <c r="F103" t="str">
+        <f>B98</f>
+        <v>battery capacity, Li-sulfur, Li-S</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="3">
         <f>1/(0.15*75%)</f>
         <v>8.8888888888888893</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C104" t="s">
         <v>7</v>
       </c>
-      <c r="D97" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
         <v>14</v>
       </c>
-      <c r="F97" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" t="s">
-        <v>15</v>
+      <c r="F104" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>66</v>
-      </c>
-      <c r="B105">
+        <v>72</v>
+      </c>
+      <c r="B105" s="3">
+        <f>-1*B104</f>
+        <v>-8.8888888888888893</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113">
         <f>1-0.45</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="str">
-        <f>B99</f>
+    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="str">
+        <f>B107</f>
         <v>market for battery capacity, Li-ion, Li-O2</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108" t="str">
-        <f>B104</f>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="str">
+        <f>B112</f>
         <v>kilowatt hour</v>
       </c>
-      <c r="D108" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
         <v>13</v>
       </c>
-      <c r="F108" t="str">
-        <f>B103</f>
+      <c r="F116" t="str">
+        <f>B111</f>
         <v>battery capacity, Li-ion, Li-O2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" s="3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" s="3">
         <f>1/0.198</f>
         <v>5.0505050505050502</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C117" t="s">
         <v>7</v>
       </c>
-      <c r="D109" t="s">
-        <v>3</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
         <v>14</v>
       </c>
-      <c r="F109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+      <c r="F117" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>72</v>
+      </c>
+      <c r="B118" s="3">
+        <f>-1*B117</f>
+        <v>-5.0505050505050502</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="B120" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>2</v>
       </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>4</v>
       </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>5</v>
       </c>
-      <c r="B115" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="B124" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>6</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B125" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>66</v>
-      </c>
-      <c r="B117">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>64</v>
+      </c>
+      <c r="B126">
         <f>1-0.25</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="str">
-        <f>B111</f>
+    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="str">
+        <f>B120</f>
         <v>market for battery capacity, Sodium-ion, SiB</v>
       </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120" t="str">
-        <f>B116</f>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="str">
+        <f>B125</f>
         <v>kilowatt hour</v>
       </c>
-      <c r="D120" t="s">
-        <v>3</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
         <v>13</v>
       </c>
-      <c r="F120" t="str">
-        <f>B115</f>
+      <c r="F129" t="str">
+        <f>B124</f>
         <v>battery capacity, Sodium-ion, SiB</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>51</v>
-      </c>
-      <c r="B121" s="3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" s="3">
         <f>1/(0.157*75%)</f>
         <v>8.4925690021231421</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C130" t="s">
         <v>7</v>
       </c>
-      <c r="D121" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
         <v>14</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F130" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>72</v>
+      </c>
+      <c r="B131" s="3">
+        <f>-1*B130</f>
+        <v>-8.4925690021231421</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="str">
+        <f>B133</f>
+        <v>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" t="str">
+        <f>B135</f>
+        <v>GLO</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="str">
+        <f>B137</f>
+        <v>battery capacity, Na-NiCl</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>1</v>
-      </c>
-      <c r="B124" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="str">
-        <f>B123</f>
-        <v>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" t="str">
-        <f>B125</f>
-        <v>GLO</v>
-      </c>
-      <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="str">
-        <f>B127</f>
-        <v>battery capacity, Na-NiCl</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>54</v>
-      </c>
-      <c r="B133" s="3">
+      <c r="B143" s="3">
         <f>1/0.116</f>
         <v>8.6206896551724128</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C143" t="s">
         <v>7</v>
       </c>
-      <c r="E133" t="s">
-        <v>3</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="E143" t="s">
+        <v>3</v>
+      </c>
+      <c r="F143" t="s">
         <v>14</v>
       </c>
-      <c r="G133" t="s">
-        <v>55</v>
+      <c r="G143" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>72</v>
+      </c>
+      <c r="B144" s="3">
+        <f>-1*B143</f>
+        <v>-8.6206896551724128</v>
+      </c>
+      <c r="C144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E8F615-897A-B34E-98C7-322C75FB724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63122578-E956-8340-A2CA-9101DE7C0366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23260" yWindow="3580" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36560" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$O$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$H$144</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2279,18 +2279,18 @@
       <c r="C144" t="s">
         <v>7</v>
       </c>
-      <c r="D144" t="s">
-        <v>3</v>
-      </c>
       <c r="E144" t="s">
+        <v>3</v>
+      </c>
+      <c r="F144" t="s">
         <v>14</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H144" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63122578-E956-8340-A2CA-9101DE7C0366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9DBF26-6B68-E542-88B1-5FB0F644590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36560" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="500" windowWidth="23320" windowHeight="23000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$H$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$H$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="92">
   <si>
     <t>Activity</t>
   </si>
@@ -88,9 +88,6 @@
     <t>kilowatt hour</t>
   </si>
   <si>
-    <t>categories</t>
-  </si>
-  <si>
     <t>database</t>
   </si>
   <si>
@@ -205,15 +202,6 @@
     <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LFP battery. Specific energy density in 2020: 0.14 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.10 kWh/kg battery. Battery mass per kWh: 9.8 kg. Lifetime: 3'000-10'000 cycles.</t>
   </si>
   <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC111 battery. Specific energy density in 2020: 0.197 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.14 kWh/kg battery. Battery mass per kWh: 6.95 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Crenna et al., 2021.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC622 battery. Specific energy density in 2020: 0.200 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.15 kWh/kg battery. Battery mass per kWh: 6.85 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Crenna et al., 2021.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC811 battery. Specific energy density in 2020: 0.209 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2020: 0.15 kWh/kg battery. Battery mass per kWh: 6.74 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Crenna et al., 2021.</t>
-  </si>
-  <si>
     <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NCA battery. Specific energy density in 2020: 0.224 kWh/kg cell. Battery management (BoP) mass share: 29.3%. Battery energy density in 2020: 0.159 kWh/kg battery. Battery mass per kWh: 6.74 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Crenna et al., 2021.</t>
   </si>
   <si>
@@ -272,12 +260,69 @@
   </si>
   <si>
     <t>battery capacity, Li-sulfur, Li-S</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC111 battery. Specific energy density in 2020: 0.197 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.144 kWh/kg battery. Battery mass per kWh: 6.95 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Crenna et al., 2021.</t>
+  </si>
+  <si>
+    <t>uncertainty type</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC523</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NMC523</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NMC523</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NMC523</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC523 battery. Specific energy density in 2020: 0.205 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.150 kWh/kg battery. Battery mass per kWh: 6.95 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Xu, C., Dai, Q., Gaines, L. et al. Future material demand for automotive lithium-based batteries. Commun Mater 1, 99 (2020). https://doi.org/10.1038/s43246-020-00095-x</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC622 battery. Specific energy density in 2020: 0.210 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.15 kWh/kg battery. Battery mass per kWh: 6.85 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Crenna et al., 2021.</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC955</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NMC955</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NMC955</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NMC955</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC955 battery. Specific energy density in 2020: 0.280 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2030: 0.200 kWh/kg battery. Battery mass per kWh: 6.74 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Xu, C., Dai, Q., Gaines, L. et al. Future material demand for automotive lithium-based batteries. Commun Mater 1, 99 (2020). https://doi.org/10.1038/s43246-020-00095-x</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC811 battery. Specific energy density in 2020: 0.225 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2020: 0.16 kWh/kg battery. Battery mass per kWh: 6.74 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Crenna et al., 2021.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,7 +398,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -361,6 +406,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -655,31 +701,31 @@
     <col min="2" max="2" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -687,7 +733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -695,37 +741,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -744,8 +791,23 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
         <f>B3</f>
         <v>market for battery capacity, Li-ion, LFP</v>
@@ -768,12 +830,13 @@
         <v>battery capacity, Li-ion, LFP</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>9.8000000000000007</v>
+        <v>19</v>
+      </c>
+      <c r="B13" s="7">
+        <f>1/(0.14*(1-27%))</f>
+        <v>9.7847358121330714</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -785,15 +848,31 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <f>B13</f>
+        <v>9.7847358121330714</v>
+      </c>
+      <c r="I13" s="7">
+        <f>B13*0.75</f>
+        <v>7.3385518590998036</v>
+      </c>
+      <c r="J13" s="7">
+        <f>B13*1.25</f>
+        <v>12.230919765166339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14">
-        <v>-9.8000000000000007</v>
+        <v>68</v>
+      </c>
+      <c r="B14" s="7">
+        <f>-1*B13</f>
+        <v>-9.7847358121330714</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -805,26 +884,44 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <f>B14</f>
+        <v>-9.7847358121330714</v>
+      </c>
+      <c r="I14" s="7">
+        <f>B14*0.75</f>
+        <v>-7.3385518590998036</v>
+      </c>
+      <c r="J14" s="7">
+        <f>B14*1.25</f>
+        <v>-12.230919765166339</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -832,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -840,15 +937,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -856,21 +953,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -889,8 +986,23 @@
       <c r="F24" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="str">
         <f>B16</f>
         <v>market for battery capacity, Li-ion, NMC111</v>
@@ -913,9 +1025,9 @@
         <v>battery capacity, Li-ion, NMC111</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3">
         <f>1/(0.197*73%)</f>
@@ -931,12 +1043,27 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26" s="7">
+        <f>B26</f>
+        <v>6.9536193588762956</v>
+      </c>
+      <c r="I26" s="7">
+        <f>B26*0.75</f>
+        <v>5.2152145191572217</v>
+      </c>
+      <c r="J26" s="7">
+        <f>B26*1.25</f>
+        <v>8.6920241985953695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B27" s="3">
         <f>-1*B26</f>
@@ -952,26 +1079,44 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27" s="7">
+        <f>B27</f>
+        <v>-6.9536193588762956</v>
+      </c>
+      <c r="I27" s="7">
+        <f>B27*0.75</f>
+        <v>-5.2152145191572217</v>
+      </c>
+      <c r="J27" s="7">
+        <f>B27*1.25</f>
+        <v>-8.6920241985953695</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -979,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -987,15 +1132,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1003,21 +1148,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B35">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,11 +1181,26 @@
       <c r="F37" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="str">
         <f>B29</f>
-        <v>market for battery capacity, Li-ion, NMC622</v>
+        <v>market for battery capacity, Li-ion, NMC523</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1057,16 +1217,16 @@
       </c>
       <c r="F38" t="str">
         <f>B33</f>
-        <v>battery capacity, Li-ion, NMC622</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>battery capacity, Li-ion, NMC523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B39" s="3">
-        <f>1/(0.2*73%)</f>
-        <v>6.8493150684931514</v>
+        <f>1/(0.205*73%)</f>
+        <v>6.682258603407953</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1078,16 +1238,31 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39" s="7">
+        <f>B39</f>
+        <v>6.682258603407953</v>
+      </c>
+      <c r="I39" s="7">
+        <f>B39*0.75</f>
+        <v>5.0116939525559649</v>
+      </c>
+      <c r="J39" s="7">
+        <f>B39*1.25</f>
+        <v>8.3528232542599419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B40" s="3">
         <f>-1*B39</f>
-        <v>-6.8493150684931514</v>
+        <v>-6.682258603407953</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1099,26 +1274,44 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40" s="7">
+        <f>B40</f>
+        <v>-6.682258603407953</v>
+      </c>
+      <c r="I40" s="7">
+        <f>B40*0.75</f>
+        <v>-5.0116939525559649</v>
+      </c>
+      <c r="J40" s="7">
+        <f>B40*1.25</f>
+        <v>-8.3528232542599419</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1134,37 +1327,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B48">
-        <f>1-0.29</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <f>1-0.27</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -1183,11 +1379,26 @@
       <c r="F50" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="str">
         <f>B42</f>
-        <v>market for battery capacity, Li-ion, NMC811</v>
+        <v>market for battery capacity, Li-ion, NMC622</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1204,16 +1415,16 @@
       </c>
       <c r="F51" t="str">
         <f>B46</f>
-        <v>battery capacity, Li-ion, NMC811</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>battery capacity, Li-ion, NMC622</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="3">
-        <f>1/(0.209*71%)</f>
-        <v>6.7389985848102976</v>
+        <f>1/(0.21*73%)</f>
+        <v>6.5231572080887155</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1225,16 +1436,31 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52" s="7">
+        <f>B52</f>
+        <v>6.5231572080887155</v>
+      </c>
+      <c r="I52" s="7">
+        <f>B52*0.75</f>
+        <v>4.8923679060665366</v>
+      </c>
+      <c r="J52" s="7">
+        <f>B52*1.25</f>
+        <v>8.1539465101108952</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B53" s="3">
         <f>-1*B52</f>
-        <v>-6.7389985848102976</v>
+        <v>-6.5231572080887155</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1246,26 +1472,44 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53" s="7">
+        <f>B53</f>
+        <v>-6.5231572080887155</v>
+      </c>
+      <c r="I53" s="7">
+        <f>B53*0.75</f>
+        <v>-4.8923679060665366</v>
+      </c>
+      <c r="J53" s="7">
+        <f>B53*1.25</f>
+        <v>-8.1539465101108952</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1281,37 +1525,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <f>1-0.293</f>
-        <v>0.70700000000000007</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <f>1-0.29</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -1330,11 +1575,26 @@
       <c r="F63" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="str">
         <f>B55</f>
-        <v>market for battery capacity, Li-ion, NCA</v>
+        <v>market for battery capacity, Li-ion, NMC811</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1351,16 +1611,16 @@
       </c>
       <c r="F64" t="str">
         <f>B59</f>
-        <v>battery capacity, Li-ion, NCA</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>battery capacity, Li-ion, NMC811</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B65" s="3">
-        <f>1/(0.224*70.7%)</f>
-        <v>6.3144069508991709</v>
+        <f>1/(0.225*71%)</f>
+        <v>6.2597809076682314</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -1372,16 +1632,31 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65" s="7">
+        <f>B65</f>
+        <v>6.2597809076682314</v>
+      </c>
+      <c r="I65" s="7">
+        <f>B65*0.75</f>
+        <v>4.694835680751174</v>
+      </c>
+      <c r="J65" s="7">
+        <f>B65*1.25</f>
+        <v>7.8247261345852888</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B66" s="3">
         <f>-1*B65</f>
-        <v>-6.3144069508991709</v>
+        <v>-6.2597809076682314</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -1393,26 +1668,44 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66" s="7">
+        <f>B66</f>
+        <v>-6.2597809076682314</v>
+      </c>
+      <c r="I66" s="7">
+        <f>B66*0.75</f>
+        <v>-4.694835680751174</v>
+      </c>
+      <c r="J66" s="7">
+        <f>B66*1.25</f>
+        <v>-7.8247261345852888</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -1420,7 +1713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1428,37 +1721,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B74">
-        <f>1-0.36</f>
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <f>1-0.29</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -1477,11 +1771,26 @@
       <c r="F76" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="str">
+      <c r="G76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="str">
         <f>B68</f>
-        <v>market for battery capacity, Li-ion, LTO</v>
+        <v>market for battery capacity, Li-ion, NMC955</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1498,16 +1807,16 @@
       </c>
       <c r="F77" t="str">
         <f>B72</f>
-        <v>battery capacity, Li-ion, LTO</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>battery capacity, Li-ion, NMC955</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B78" s="3">
-        <f>1/(0.085*64%)</f>
-        <v>18.382352941176471</v>
+        <f>1/(0.28*71%)</f>
+        <v>5.0301810865191143</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -1519,16 +1828,31 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78" s="7">
+        <f>B78</f>
+        <v>5.0301810865191143</v>
+      </c>
+      <c r="I78" s="7">
+        <f>B78*0.75</f>
+        <v>3.7726358148893357</v>
+      </c>
+      <c r="J78" s="7">
+        <f>B78*1.25</f>
+        <v>6.2877263581488929</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B79" s="3">
         <f>-1*B78</f>
-        <v>-18.382352941176471</v>
+        <v>-5.0301810865191143</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -1540,26 +1864,44 @@
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79" s="7">
+        <f>B79</f>
+        <v>-5.0301810865191143</v>
+      </c>
+      <c r="I79" s="7">
+        <f>B79*0.75</f>
+        <v>-3.7726358148893357</v>
+      </c>
+      <c r="J79" s="7">
+        <f>B79*1.25</f>
+        <v>-6.2877263581488929</v>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -1575,37 +1917,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>6</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B87">
-        <f>1-0.13</f>
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <f>1-0.293</f>
+        <v>0.70700000000000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
@@ -1624,11 +1967,26 @@
       <c r="F89" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="str">
+      <c r="G89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="str">
         <f>B81</f>
-        <v>market for battery capacity, Li-ion, LiMn2O4</v>
+        <v>market for battery capacity, Li-ion, NCA</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1645,16 +2003,16 @@
       </c>
       <c r="F90" t="str">
         <f>B85</f>
-        <v>battery capacity, Li-ion, LiMn2O4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>battery capacity, Li-ion, NCA</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B91" s="3">
-        <f>1/(32/280)</f>
-        <v>8.75</v>
+        <f>1/(0.224*70.7%)</f>
+        <v>6.3144069508991709</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -1666,16 +2024,31 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91" s="7">
+        <f>B91</f>
+        <v>6.3144069508991709</v>
+      </c>
+      <c r="I91" s="7">
+        <f>B91*0.75</f>
+        <v>4.7358052131743786</v>
+      </c>
+      <c r="J91" s="7">
+        <f>B91*1.25</f>
+        <v>7.8930086886239632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B92" s="3">
         <f>-1*B91</f>
-        <v>-8.75</v>
+        <v>-6.3144069508991709</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -1687,26 +2060,44 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="H92" s="7">
+        <f>B92</f>
+        <v>-6.3144069508991709</v>
+      </c>
+      <c r="I92" s="7">
+        <f>B92*0.75</f>
+        <v>-4.7358052131743786</v>
+      </c>
+      <c r="J92" s="7">
+        <f>B92*1.25</f>
+        <v>-7.8930086886239632</v>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -1714,7 +2105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -1722,15 +2113,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -1738,21 +2130,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B100">
-        <f>1-0.25</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <f>1-0.36</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
@@ -1771,11 +2163,26 @@
       <c r="F102" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="str">
+      <c r="G102" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="str">
         <f>B94</f>
-        <v>market for battery capacity, Li-sulfur, Li-S</v>
+        <v>market for battery capacity, Li-ion, LTO</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -1792,16 +2199,16 @@
       </c>
       <c r="F103" t="str">
         <f>B98</f>
-        <v>battery capacity, Li-sulfur, Li-S</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>battery capacity, Li-ion, LTO</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B104" s="3">
-        <f>1/(0.15*75%)</f>
-        <v>8.8888888888888893</v>
+        <f>1/(0.085*64%)</f>
+        <v>18.382352941176471</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -1813,16 +2220,31 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+      <c r="H104" s="7">
+        <f>B104</f>
+        <v>18.382352941176471</v>
+      </c>
+      <c r="I104" s="7">
+        <f>B104*0.75</f>
+        <v>13.786764705882353</v>
+      </c>
+      <c r="J104" s="7">
+        <f>B104*1.25</f>
+        <v>22.977941176470587</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B105" s="3">
         <f>-1*B104</f>
-        <v>-8.8888888888888893</v>
+        <v>-18.382352941176471</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -1834,26 +2256,44 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105" s="7">
+        <f>B105</f>
+        <v>-18.382352941176471</v>
+      </c>
+      <c r="I105" s="7">
+        <f>B105*0.75</f>
+        <v>-13.786764705882353</v>
+      </c>
+      <c r="J105" s="7">
+        <f>B105*1.25</f>
+        <v>-22.977941176470587</v>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -1861,7 +2301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -1869,37 +2309,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B113">
-        <f>1-0.45</f>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <f>1-0.13</f>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
@@ -1918,11 +2359,26 @@
       <c r="F115" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="str">
+      <c r="G115" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="str">
         <f>B107</f>
-        <v>market for battery capacity, Li-ion, Li-O2</v>
+        <v>market for battery capacity, Li-ion, LiMn2O4</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1939,16 +2395,16 @@
       </c>
       <c r="F116" t="str">
         <f>B111</f>
-        <v>battery capacity, Li-ion, Li-O2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>battery capacity, Li-ion, LiMn2O4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B117" s="3">
-        <f>1/0.198</f>
-        <v>5.0505050505050502</v>
+        <f>1/(32/280)</f>
+        <v>8.75</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
@@ -1960,16 +2416,31 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="G117">
+        <v>5</v>
+      </c>
+      <c r="H117" s="7">
+        <f>B117</f>
+        <v>8.75</v>
+      </c>
+      <c r="I117" s="7">
+        <f>B117*0.75</f>
+        <v>6.5625</v>
+      </c>
+      <c r="J117" s="7">
+        <f>B117*1.25</f>
+        <v>10.9375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B118" s="3">
         <f>-1*B117</f>
-        <v>-5.0505050505050502</v>
+        <v>-8.75</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
@@ -1981,26 +2452,44 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="G118">
+        <v>5</v>
+      </c>
+      <c r="H118" s="7">
+        <f>B118</f>
+        <v>-8.75</v>
+      </c>
+      <c r="I118" s="7">
+        <f>B118*0.75</f>
+        <v>-6.5625</v>
+      </c>
+      <c r="J118" s="7">
+        <f>B118*1.25</f>
+        <v>-10.9375</v>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -2008,7 +2497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -2016,37 +2505,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>6</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B126">
         <f>1-0.25</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>10</v>
       </c>
@@ -2065,11 +2555,26 @@
       <c r="F128" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G128" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="str">
         <f>B120</f>
-        <v>market for battery capacity, Sodium-ion, SiB</v>
+        <v>market for battery capacity, Li-sulfur, Li-S</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -2086,211 +2591,677 @@
       </c>
       <c r="F129" t="str">
         <f>B124</f>
+        <v>battery capacity, Li-sulfur, Li-S</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" s="3">
+        <f>1/(0.15*75%)</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130">
+        <v>5</v>
+      </c>
+      <c r="H130" s="7">
+        <f>B130</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="I130" s="7">
+        <f>B130*0.75</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J130" s="7">
+        <f>B130*1.25</f>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" s="3">
+        <f>-1*B130</f>
+        <v>-8.8888888888888893</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>69</v>
+      </c>
+      <c r="G131">
+        <v>5</v>
+      </c>
+      <c r="H131" s="7">
+        <f>B131</f>
+        <v>-8.8888888888888893</v>
+      </c>
+      <c r="I131" s="7">
+        <f>B131*0.75</f>
+        <v>-6.666666666666667</v>
+      </c>
+      <c r="J131" s="7">
+        <f>B131*1.25</f>
+        <v>-11.111111111111111</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>60</v>
+      </c>
+      <c r="B139">
+        <f>1-0.45</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="str">
+        <f>B133</f>
+        <v>market for battery capacity, Li-ion, Li-O2</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="str">
+        <f>B138</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="str">
+        <f>B137</f>
+        <v>battery capacity, Li-ion, Li-O2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>45</v>
+      </c>
+      <c r="B143" s="3">
+        <f>1/0.198</f>
+        <v>5.0505050505050502</v>
+      </c>
+      <c r="C143" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" t="s">
+        <v>46</v>
+      </c>
+      <c r="G143">
+        <v>5</v>
+      </c>
+      <c r="H143" s="7">
+        <f>B143</f>
+        <v>5.0505050505050502</v>
+      </c>
+      <c r="I143" s="7">
+        <f>B143*0.75</f>
+        <v>3.7878787878787876</v>
+      </c>
+      <c r="J143" s="7">
+        <f>B143*1.25</f>
+        <v>6.3131313131313131</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>68</v>
+      </c>
+      <c r="B144" s="3">
+        <f>-1*B143</f>
+        <v>-5.0505050505050502</v>
+      </c>
+      <c r="C144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" t="s">
+        <v>69</v>
+      </c>
+      <c r="G144">
+        <v>5</v>
+      </c>
+      <c r="H144" s="7">
+        <f>B144</f>
+        <v>-5.0505050505050502</v>
+      </c>
+      <c r="I144" s="7">
+        <f>B144*0.75</f>
+        <v>-3.7878787878787876</v>
+      </c>
+      <c r="J144" s="7">
+        <f>B144*1.25</f>
+        <v>-6.3131313131313131</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>50</v>
+      </c>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>60</v>
+      </c>
+      <c r="B152">
+        <f>1-0.25</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="str">
+        <f>B146</f>
+        <v>market for battery capacity, Sodium-ion, SiB</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" t="str">
+        <f>B151</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="str">
+        <f>B150</f>
         <v>battery capacity, Sodium-ion, SiB</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>49</v>
-      </c>
-      <c r="B130" s="3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>48</v>
+      </c>
+      <c r="B156" s="3">
         <f>1/(0.157*75%)</f>
         <v>8.4925690021231421</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C156" t="s">
         <v>7</v>
       </c>
-      <c r="D130" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="D156" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" t="s">
         <v>14</v>
       </c>
-      <c r="F130" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>72</v>
-      </c>
-      <c r="B131" s="3">
-        <f>-1*B130</f>
+      <c r="F156" t="s">
+        <v>49</v>
+      </c>
+      <c r="G156">
+        <v>5</v>
+      </c>
+      <c r="H156" s="7">
+        <f>B156</f>
+        <v>8.4925690021231421</v>
+      </c>
+      <c r="I156" s="7">
+        <f>B156*0.75</f>
+        <v>6.369426751592357</v>
+      </c>
+      <c r="J156" s="7">
+        <f>B156*1.25</f>
+        <v>10.615711252653927</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>68</v>
+      </c>
+      <c r="B157" s="3">
+        <f>-1*B156</f>
         <v>-8.4925690021231421</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C157" t="s">
         <v>7</v>
       </c>
-      <c r="D131" t="s">
-        <v>3</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="D157" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
         <v>14</v>
       </c>
-      <c r="F131" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+      <c r="F157" t="s">
+        <v>69</v>
+      </c>
+      <c r="G157">
+        <v>5</v>
+      </c>
+      <c r="H157" s="7">
+        <f>B157</f>
+        <v>-8.4925690021231421</v>
+      </c>
+      <c r="I157" s="7">
+        <f>B157*0.75</f>
+        <v>-6.369426751592357</v>
+      </c>
+      <c r="J157" s="7">
+        <f>B157*1.25</f>
+        <v>-10.615711252653927</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="B159" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>2</v>
       </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>4</v>
       </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>6</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B164" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>8</v>
       </c>
-      <c r="B139" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+      <c r="B165" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E141" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="str">
-        <f>B133</f>
+      <c r="F167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="5" t="str">
+        <f>B159</f>
         <v>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
         <v>15</v>
       </c>
-      <c r="E142" t="str">
-        <f>B135</f>
+      <c r="D168" t="str">
+        <f>B161</f>
         <v>GLO</v>
       </c>
-      <c r="F142" t="s">
+      <c r="E168" t="s">
         <v>13</v>
       </c>
-      <c r="G142" t="str">
-        <f>B137</f>
+      <c r="F168" t="str">
+        <f>B163</f>
         <v>battery capacity, Na-NiCl</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>52</v>
-      </c>
-      <c r="B143" s="3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>51</v>
+      </c>
+      <c r="B169" s="3">
         <f>1/0.116</f>
         <v>8.6206896551724128</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C169" t="s">
         <v>7</v>
       </c>
-      <c r="E143" t="s">
-        <v>3</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" t="s">
         <v>14</v>
       </c>
-      <c r="G143" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>72</v>
-      </c>
-      <c r="B144" s="3">
-        <f>-1*B143</f>
+      <c r="F169" t="s">
+        <v>52</v>
+      </c>
+      <c r="G169">
+        <v>5</v>
+      </c>
+      <c r="H169" s="7">
+        <f>B169</f>
+        <v>8.6206896551724128</v>
+      </c>
+      <c r="I169" s="7">
+        <f>B169*0.75</f>
+        <v>6.4655172413793096</v>
+      </c>
+      <c r="J169" s="7">
+        <f>B169*1.25</f>
+        <v>10.775862068965516</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>68</v>
+      </c>
+      <c r="B170" s="3">
+        <f>-1*B169</f>
         <v>-8.6206896551724128</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C170" t="s">
         <v>7</v>
       </c>
-      <c r="E144" t="s">
-        <v>3</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" t="s">
         <v>14</v>
       </c>
-      <c r="G144" t="s">
-        <v>73</v>
+      <c r="F170" t="s">
+        <v>69</v>
+      </c>
+      <c r="G170">
+        <v>5</v>
+      </c>
+      <c r="H170" s="7">
+        <f>B170</f>
+        <v>-8.6206896551724128</v>
+      </c>
+      <c r="I170" s="7">
+        <f>B170*0.75</f>
+        <v>-6.4655172413793096</v>
+      </c>
+      <c r="J170" s="7">
+        <f>B170*1.25</f>
+        <v>-10.775862068965516</v>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H144" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H170" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9DBF26-6B68-E542-88B1-5FB0F644590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82F37C-A32B-6C40-A337-F64C74A0A4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="500" windowWidth="23320" windowHeight="23000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2140" yWindow="1940" windowWidth="23320" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
@@ -199,12 +199,6 @@
     <t>battery, NaCl</t>
   </si>
   <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LFP battery. Specific energy density in 2020: 0.14 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.10 kWh/kg battery. Battery mass per kWh: 9.8 kg. Lifetime: 3'000-10'000 cycles.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NCA battery. Specific energy density in 2020: 0.224 kWh/kg cell. Battery management (BoP) mass share: 29.3%. Battery energy density in 2020: 0.159 kWh/kg battery. Battery mass per kWh: 6.74 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Crenna et al., 2021.</t>
-  </si>
-  <si>
     <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LTO battery. Specific energy density in 2020: 0.085 kWh/kg cell. Battery management (BoP) mass share: 36%. Battery energy density in 2020: 0.053 kWh/kg battery. Battery mass per kWh: 18.4 kg. Lifetime: 10'000 cycles. Source for parameters: Life cycle assessment of battery electric buses. Transportation Research Part D: Transport and Environment. Linda Ager-Wick Ellingsen, Rebecca Jayne Thorne, Julia Wind, Erik Figenbaum, Mia Romare and Anders Nordelöf.</t>
   </si>
   <si>
@@ -223,12 +217,6 @@
     <t>battery cell mass share</t>
   </si>
   <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion Li-S battery. Specific energy density in 2020: 0.15 kWh/kg cell. Battery management (BoP) mass share: 25%. Battery energy density in 2020: 0.11 kWh/kg battery. Battery mass per kWh: 8.9 kg. Cycle life: 1500 or Lifetime: 225 kWh/kg. Source: Wickerts et al. (2023). Prospective Life Cycle Assessment of Lithium-Sulfur Batteries for Stationary Energy Storage. ACS Sustainable Chemistry &amp; Engineering. https://doi.org/10.1021/acssuschemeng.3c00141</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Sodium-ion battery. Specific energy density in 2020: 0.157 kWh/kg cell. Battery management (BoP) mass share: 25%. Battery energy density in 2020: 0.12 kWh/kg battery. Battery mass per kWh: 8.33 kg. Lifetime: 628 kWh/kg cell (4000 cycles x 0.157 kWh). Source for parameters: Zhang, S., Steubing, B., Potter, H. K., Hansson, P. A., &amp; Nordberg, Å. (2024). Future climate impacts of sodium-ion batteries. Resources, Conservation and Recycling, 202, 107362. https://doi.org/10.1016/j.resconrec.2023.107362</t>
-  </si>
-  <si>
     <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Lithium-oxygen Li-O2 battery. Specific energy density in 2020: 0.360 kWh/kg cell. Battery management (BoP) mass share: 45%. Battery energy density in 2020: 0.238 kWh/kg battery (excl. O2 tanks). System energy density in 2020: 0.198 kWh/kg battery (incl. O2 tanks). Battery mass per kWh: 5.05 kg. Battery lifetime: 305 kWh/kg (1.76 MJ/km x 2e5 km / 321 kg). Source for parameters: Originally from Wang, F., Deng, Y., &amp; Yuan, C. (2020). Life cycle assessment of lithium oxygen battery for electric vehicles. Journal of Cleaner Production, 264, 121339. https://doi.org/10.1016/j.jclepro.2020.121339</t>
   </si>
   <si>
@@ -262,9 +250,6 @@
     <t>battery capacity, Li-sulfur, Li-S</t>
   </si>
   <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC111 battery. Specific energy density in 2020: 0.197 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.144 kWh/kg battery. Battery mass per kWh: 6.95 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Crenna et al., 2021.</t>
-  </si>
-  <si>
     <t>uncertainty type</t>
   </si>
   <si>
@@ -292,12 +277,6 @@
     <t>battery, Li-ion, NMC523</t>
   </si>
   <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC523 battery. Specific energy density in 2020: 0.205 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.150 kWh/kg battery. Battery mass per kWh: 6.95 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Xu, C., Dai, Q., Gaines, L. et al. Future material demand for automotive lithium-based batteries. Commun Mater 1, 99 (2020). https://doi.org/10.1038/s43246-020-00095-x</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC622 battery. Specific energy density in 2020: 0.210 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.15 kWh/kg battery. Battery mass per kWh: 6.85 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Crenna et al., 2021.</t>
-  </si>
-  <si>
     <t>market for battery capacity, Li-ion, NMC955</t>
   </si>
   <si>
@@ -310,10 +289,31 @@
     <t>battery, Li-ion, NMC955</t>
   </si>
   <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC955 battery. Specific energy density in 2020: 0.280 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2030: 0.200 kWh/kg battery. Battery mass per kWh: 6.74 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Xu, C., Dai, Q., Gaines, L. et al. Future material demand for automotive lithium-based batteries. Commun Mater 1, 99 (2020). https://doi.org/10.1038/s43246-020-00095-x</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC811 battery. Specific energy density in 2020: 0.225 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2020: 0.16 kWh/kg battery. Battery mass per kWh: 6.74 kg. Lifetime: 3'000-5'000 cycles. Source for parameters: Crenna et al., 2021.</t>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LFP battery. Specific energy density in 2020: (min, mean, max) 0.140, 0.160, 0.190 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.10 kWh/kg battery. Battery mass per kWh: 8.6 kg. Lifetime: 3'000-3'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC111 battery. Specific cell energy density in 2020: (min, mean, max) 0.150, 0.180, 0.190 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.13 kWh/kg battery. Battery mass per kWh: 7.6 kg. Lifetime: 1'000-1'800 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC523 battery. Specific energy density in 2020: (min, mean, max) 0.170, 0.200, 0.220 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.150 kWh/kg battery. Battery mass per kWh: 6.95 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC622 battery. Specific energy density in 2020: (min, mean, max) 0.200, 0.240, 0.280 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.180 kWh/kg battery. Battery mass per kWh: 6.85 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC811 battery. Specific energy density in 2020: (min, mean, max) 0.240, 0.280, 0.340 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2020: 0.20 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 1'000-1'200 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NCA battery. Specific energy density in 2020: (min, mean, max) 0.240, 0.280, 0.340 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2020: 0.20 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 800-1'600 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Sodium-ion battery. Specific energy density in 2020: 0.157 kWh/kg cell. Battery management (BoP) mass share: 25%. Battery energy density in 2020: 0.12 kWh/kg battery. Battery mass per kWh: 8.5 kg. Lifetime: 628 kWh/kg cell (4000 cycles x 0.157 kWh) or 2'500-4'000 cycles. Source for parameters: Zhang, S., Steubing, B., Potter, H. K., Hansson, P. A., &amp; Nordberg, Å. (2024). Future climate impacts of sodium-ion batteries. Resources, Conservation and Recycling, 202, 107362. https://doi.org/10.1016/j.resconrec.2023.107362. Min and max values from: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion Li-S battery. Specific energy density in 2020: 0.15 kWh/kg cell, 0.5 kWh/kg cell in the future. Battery management (BoP) mass share: 25%. Battery energy density in 2020: 0.11 kWh/kg battery. Battery mass per kWh: 8.9 kg. Cycle life: 800-1'500 or Lifetime: 225 kWh/kg. Source: Wickerts et al. (2023). Prospective Life Cycle Assessment of Lithium-Sulfur Batteries for Stationary Energy Storage. ACS Sustainable Chemistry &amp; Engineering. https://doi.org/10.1021/acssuschemeng.3c00141</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC955 battery. Specific energy density in 2020: (min, mean, max) 0.300, 0.340, 0.380 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2030: 0.240 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -406,7 +406,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K170"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J171" sqref="J171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -701,7 +702,7 @@
     <col min="2" max="2" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -709,7 +710,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -717,15 +719,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -733,7 +735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -741,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -749,7 +751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -758,21 +760,22 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -792,22 +795,22 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
         <f>B3</f>
         <v>market for battery capacity, Li-ion, LFP</v>
@@ -830,49 +833,49 @@
         <v>battery capacity, Li-ion, LFP</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="7">
+        <f>1/(0.16*(1-27%))</f>
+        <v>8.5616438356164384</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <f>B13</f>
+        <v>8.5616438356164384</v>
+      </c>
+      <c r="I13" s="7">
+        <f>1/(0.19*(1-27%))</f>
+        <v>7.2098053352559486</v>
+      </c>
+      <c r="J13" s="7">
         <f>1/(0.14*(1-27%))</f>
         <v>9.7847358121330714</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13" s="7">
-        <f>B13</f>
-        <v>9.7847358121330714</v>
-      </c>
-      <c r="I13" s="7">
-        <f>B13*0.75</f>
-        <v>7.3385518590998036</v>
-      </c>
-      <c r="J13" s="7">
-        <f>B13*1.25</f>
-        <v>12.230919765166339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B14" s="7">
         <f>-1*B13</f>
-        <v>-9.7847358121330714</v>
+        <v>-8.5616438356164384</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -884,28 +887,31 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14" s="7">
         <f>B14</f>
+        <v>-8.5616438356164384</v>
+      </c>
+      <c r="I14" s="7">
+        <f>-1/(0.14*(1-27%))</f>
         <v>-9.7847358121330714</v>
       </c>
-      <c r="I14" s="7">
-        <f>B14*0.75</f>
-        <v>-7.3385518590998036</v>
-      </c>
       <c r="J14" s="7">
-        <f>B14*1.25</f>
-        <v>-12.230919765166339</v>
+        <f>-1/(0.19*(1-27%))</f>
+        <v>-7.2098053352559486</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -913,15 +919,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -929,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -937,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -945,7 +951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -953,21 +959,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,22 +994,22 @@
         <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="str">
         <f>B16</f>
         <v>market for battery capacity, Li-ion, NMC111</v>
@@ -1025,13 +1032,13 @@
         <v>battery capacity, Li-ion, NMC111</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="3">
-        <f>1/(0.197*73%)</f>
-        <v>6.9536193588762956</v>
+        <f>1/(0.18*73%)</f>
+        <v>7.6103500761035017</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1050,24 +1057,24 @@
       </c>
       <c r="H26" s="7">
         <f>B26</f>
-        <v>6.9536193588762956</v>
+        <v>7.6103500761035017</v>
       </c>
       <c r="I26" s="7">
-        <f>B26*0.75</f>
-        <v>5.2152145191572217</v>
+        <f>1/(0.19*73%)</f>
+        <v>7.2098053352559486</v>
       </c>
       <c r="J26" s="7">
-        <f>B26*1.25</f>
-        <v>8.6920241985953695</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <f>1/(0.14*73%)</f>
+        <v>9.7847358121330714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3">
         <f>-1*B26</f>
-        <v>-6.9536193588762956</v>
+        <v>-7.6103500761035017</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1079,44 +1086,47 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
       <c r="H27" s="7">
         <f>B27</f>
-        <v>-6.9536193588762956</v>
+        <v>-7.6103500761035017</v>
       </c>
       <c r="I27" s="7">
-        <f>B27*0.75</f>
-        <v>-5.2152145191572217</v>
+        <f>-1/(0.14*(1-27%))</f>
+        <v>-9.7847358121330714</v>
       </c>
       <c r="J27" s="7">
-        <f>B27*1.25</f>
-        <v>-8.6920241985953695</v>
+        <f>-1/(0.19*73%)</f>
+        <v>-7.2098053352559486</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1132,15 +1142,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1148,21 +1158,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,22 +1193,22 @@
         <v>5</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="str">
         <f>B29</f>
         <v>market for battery capacity, Li-ion, NMC523</v>
@@ -1220,13 +1231,13 @@
         <v>battery capacity, Li-ion, NMC523</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B39" s="3">
-        <f>1/(0.205*73%)</f>
-        <v>6.682258603407953</v>
+        <f>1/(0.2*73%)</f>
+        <v>6.8493150684931514</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1238,31 +1249,31 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G39">
         <v>5</v>
       </c>
       <c r="H39" s="7">
         <f>B39</f>
-        <v>6.682258603407953</v>
-      </c>
-      <c r="I39" s="7">
-        <f>B39*0.75</f>
-        <v>5.0116939525559649</v>
-      </c>
-      <c r="J39" s="7">
-        <f>B39*1.25</f>
-        <v>8.3528232542599419</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6.8493150684931514</v>
+      </c>
+      <c r="I39" s="3">
+        <f>1/(0.22*73%)</f>
+        <v>6.2266500622665006</v>
+      </c>
+      <c r="J39" s="3">
+        <f>1/(0.17*73%)</f>
+        <v>8.058017727639001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B40" s="3">
         <f>-1*B39</f>
-        <v>-6.682258603407953</v>
+        <v>-6.8493150684931514</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1274,28 +1285,31 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G40">
         <v>5</v>
       </c>
       <c r="H40" s="7">
         <f>B40</f>
-        <v>-6.682258603407953</v>
-      </c>
-      <c r="I40" s="7">
-        <f>B40*0.75</f>
-        <v>-5.0116939525559649</v>
-      </c>
-      <c r="J40" s="7">
-        <f>B40*1.25</f>
-        <v>-8.3528232542599419</v>
+        <v>-6.8493150684931514</v>
+      </c>
+      <c r="I40" s="3">
+        <f>-1/(0.17*73%)</f>
+        <v>-8.058017727639001</v>
+      </c>
+      <c r="J40" s="3">
+        <f>-1/(0.22*73%)</f>
+        <v>-6.2266500622665006</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
@@ -1303,15 +1317,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1336,7 +1350,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1345,22 +1359,22 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <f>1-0.27</f>
         <v>0.73</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -1380,22 +1394,22 @@
         <v>5</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="str">
         <f>B42</f>
         <v>market for battery capacity, Li-ion, NMC622</v>
@@ -1418,13 +1432,13 @@
         <v>battery capacity, Li-ion, NMC622</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="3">
-        <f>1/(0.21*73%)</f>
-        <v>6.5231572080887155</v>
+        <f>1/(0.24*73%)</f>
+        <v>5.7077625570776256</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1443,24 +1457,24 @@
       </c>
       <c r="H52" s="7">
         <f>B52</f>
-        <v>6.5231572080887155</v>
-      </c>
-      <c r="I52" s="7">
-        <f>B52*0.75</f>
-        <v>4.8923679060665366</v>
-      </c>
-      <c r="J52" s="7">
-        <f>B52*1.25</f>
-        <v>8.1539465101108952</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5.7077625570776256</v>
+      </c>
+      <c r="I52" s="3">
+        <f>1/(0.28*73%)</f>
+        <v>4.8923679060665357</v>
+      </c>
+      <c r="J52" s="3">
+        <f>1/(0.2*73%)</f>
+        <v>6.8493150684931514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B53" s="3">
         <f>-1*B52</f>
-        <v>-6.5231572080887155</v>
+        <v>-5.7077625570776256</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1472,28 +1486,31 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G53">
         <v>5</v>
       </c>
       <c r="H53" s="7">
         <f>B53</f>
-        <v>-6.5231572080887155</v>
-      </c>
-      <c r="I53" s="7">
-        <f>B53*0.75</f>
-        <v>-4.8923679060665366</v>
-      </c>
-      <c r="J53" s="7">
-        <f>B53*1.25</f>
-        <v>-8.1539465101108952</v>
+        <v>-5.7077625570776256</v>
+      </c>
+      <c r="I53" s="3">
+        <f>-1/(0.2*73%)</f>
+        <v>-6.8493150684931514</v>
+      </c>
+      <c r="J53" s="3">
+        <f>-1/(0.28*73%)</f>
+        <v>-4.8923679060665357</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
@@ -1501,15 +1518,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1517,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1525,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1533,7 +1550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1542,21 +1559,21 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <f>1-0.29</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="3">
+        <f>(0.28*71%)</f>
+        <v>0.1988</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -1576,22 +1593,22 @@
         <v>5</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="str">
         <f>B55</f>
         <v>market for battery capacity, Li-ion, NMC811</v>
@@ -1614,13 +1631,13 @@
         <v>battery capacity, Li-ion, NMC811</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="3">
-        <f>1/(0.225*71%)</f>
-        <v>6.2597809076682314</v>
+        <f>1/(0.28*71%)</f>
+        <v>5.0301810865191143</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -1632,31 +1649,31 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G65">
         <v>5</v>
       </c>
       <c r="H65" s="7">
         <f>B65</f>
-        <v>6.2597809076682314</v>
-      </c>
-      <c r="I65" s="7">
-        <f>B65*0.75</f>
-        <v>4.694835680751174</v>
-      </c>
-      <c r="J65" s="7">
-        <f>B65*1.25</f>
-        <v>7.8247261345852888</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5.0301810865191143</v>
+      </c>
+      <c r="I65" s="3">
+        <f>1/(0.34*71%)</f>
+        <v>4.1425020712510356</v>
+      </c>
+      <c r="J65" s="3">
+        <f>1/(0.24*71%)</f>
+        <v>5.868544600938967</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3">
         <f>-1*B65</f>
-        <v>-6.2597809076682314</v>
+        <v>-5.0301810865191143</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -1668,44 +1685,47 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G66">
         <v>5</v>
       </c>
       <c r="H66" s="7">
         <f>B66</f>
-        <v>-6.2597809076682314</v>
-      </c>
-      <c r="I66" s="7">
-        <f>B66*0.75</f>
-        <v>-4.694835680751174</v>
-      </c>
-      <c r="J66" s="7">
-        <f>B66*1.25</f>
-        <v>-7.8247261345852888</v>
+        <v>-5.0301810865191143</v>
+      </c>
+      <c r="I66" s="3">
+        <f>-1/(0.24*71%)</f>
+        <v>-5.868544600938967</v>
+      </c>
+      <c r="J66" s="3">
+        <f>-1/(0.34*71%)</f>
+        <v>-4.1425020712510356</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -1713,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1721,15 +1741,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1738,21 +1758,21 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B74">
         <f>1-0.29</f>
         <v>0.71</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -1772,22 +1792,22 @@
         <v>5</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="str">
         <f>B68</f>
         <v>market for battery capacity, Li-ion, NMC955</v>
@@ -1810,13 +1830,13 @@
         <v>battery capacity, Li-ion, NMC955</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B78" s="3">
-        <f>1/(0.28*71%)</f>
-        <v>5.0301810865191143</v>
+        <f>1/(0.34*71%)</f>
+        <v>4.1425020712510356</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -1828,31 +1848,31 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G78">
         <v>5</v>
       </c>
       <c r="H78" s="7">
         <f>B78</f>
-        <v>5.0301810865191143</v>
-      </c>
-      <c r="I78" s="7">
-        <f>B78*0.75</f>
-        <v>3.7726358148893357</v>
-      </c>
-      <c r="J78" s="7">
-        <f>B78*1.25</f>
-        <v>6.2877263581488929</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4.1425020712510356</v>
+      </c>
+      <c r="I78" s="3">
+        <f>1/(0.38*71%)</f>
+        <v>3.7064492216456637</v>
+      </c>
+      <c r="J78" s="3">
+        <f>1/(0.3*71%)</f>
+        <v>4.694835680751174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B79" s="3">
         <f>-1*B78</f>
-        <v>-5.0301810865191143</v>
+        <v>-4.1425020712510356</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -1864,28 +1884,31 @@
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G79">
         <v>5</v>
       </c>
       <c r="H79" s="7">
         <f>B79</f>
-        <v>-5.0301810865191143</v>
-      </c>
-      <c r="I79" s="7">
-        <f>B79*0.75</f>
-        <v>-3.7726358148893357</v>
-      </c>
-      <c r="J79" s="7">
-        <f>B79*1.25</f>
-        <v>-6.2877263581488929</v>
+        <v>-4.1425020712510356</v>
+      </c>
+      <c r="I79" s="3">
+        <f>-1/(0.3*71%)</f>
+        <v>-4.694835680751174</v>
+      </c>
+      <c r="J79" s="3">
+        <f>-1/(0.38*71%)</f>
+        <v>-3.7064492216456637</v>
       </c>
       <c r="K79" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>0</v>
       </c>
@@ -1893,15 +1916,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -1909,7 +1932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -1917,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -1925,7 +1948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -1934,21 +1957,21 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B87">
         <f>1-0.293</f>
         <v>0.70700000000000007</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
@@ -1968,22 +1991,22 @@
         <v>5</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="str">
         <f>B81</f>
         <v>market for battery capacity, Li-ion, NCA</v>
@@ -2006,13 +2029,13 @@
         <v>battery capacity, Li-ion, NCA</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>34</v>
       </c>
       <c r="B91" s="3">
-        <f>1/(0.224*70.7%)</f>
-        <v>6.3144069508991709</v>
+        <f>1/(0.28*71%)</f>
+        <v>5.0301810865191143</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -2031,24 +2054,24 @@
       </c>
       <c r="H91" s="7">
         <f>B91</f>
-        <v>6.3144069508991709</v>
-      </c>
-      <c r="I91" s="7">
-        <f>B91*0.75</f>
-        <v>4.7358052131743786</v>
-      </c>
-      <c r="J91" s="7">
-        <f>B91*1.25</f>
-        <v>7.8930086886239632</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5.0301810865191143</v>
+      </c>
+      <c r="I91" s="3">
+        <f>1/(0.34*71%)</f>
+        <v>4.1425020712510356</v>
+      </c>
+      <c r="J91" s="3">
+        <f>1/(0.24*71%)</f>
+        <v>5.868544600938967</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B92" s="3">
         <f>-1*B91</f>
-        <v>-6.3144069508991709</v>
+        <v>-5.0301810865191143</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -2060,28 +2083,31 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G92">
         <v>5</v>
       </c>
       <c r="H92" s="7">
         <f>B92</f>
-        <v>-6.3144069508991709</v>
-      </c>
-      <c r="I92" s="7">
-        <f>B92*0.75</f>
-        <v>-4.7358052131743786</v>
-      </c>
-      <c r="J92" s="7">
-        <f>B92*1.25</f>
-        <v>-7.8930086886239632</v>
+        <v>-5.0301810865191143</v>
+      </c>
+      <c r="I92" s="3">
+        <f>-1/(0.24*71%)</f>
+        <v>-5.868544600938967</v>
+      </c>
+      <c r="J92" s="3">
+        <f>-1/(0.34*71%)</f>
+        <v>-4.1425020712510356</v>
       </c>
       <c r="K92" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
@@ -2089,15 +2115,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -2105,7 +2131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2113,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2122,7 +2148,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -2130,21 +2156,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B100">
         <f>1-0.36</f>
         <v>0.64</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
@@ -2164,22 +2190,22 @@
         <v>5</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="str">
         <f>B94</f>
         <v>market for battery capacity, Li-ion, LTO</v>
@@ -2202,7 +2228,7 @@
         <v>battery capacity, Li-ion, LTO</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -2238,9 +2264,9 @@
         <v>22.977941176470587</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B105" s="3">
         <f>-1*B104</f>
@@ -2256,7 +2282,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G105">
         <v>5</v>
@@ -2266,34 +2292,37 @@
         <v>-18.382352941176471</v>
       </c>
       <c r="I105" s="7">
+        <f>B105*1.25</f>
+        <v>-22.977941176470587</v>
+      </c>
+      <c r="J105" s="7">
         <f>B105*0.75</f>
         <v>-13.786764705882353</v>
       </c>
-      <c r="J105" s="7">
-        <f>B105*1.25</f>
-        <v>-22.977941176470587</v>
-      </c>
       <c r="K105" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+    </row>
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -2301,7 +2330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -2309,15 +2338,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -2326,21 +2355,21 @@
       </c>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B113">
         <f>1-0.13</f>
         <v>0.87</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
@@ -2360,22 +2389,22 @@
         <v>5</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="str">
         <f>B107</f>
         <v>market for battery capacity, Li-ion, LiMn2O4</v>
@@ -2398,9 +2427,9 @@
         <v>battery capacity, Li-ion, LiMn2O4</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B117" s="3">
         <f>1/(32/280)</f>
@@ -2416,7 +2445,7 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G117">
         <v>5</v>
@@ -2434,9 +2463,9 @@
         <v>10.9375</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B118" s="3">
         <f>-1*B117</f>
@@ -2452,7 +2481,7 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -2462,34 +2491,37 @@
         <v>-8.75</v>
       </c>
       <c r="I118" s="7">
+        <f>B118*1.25</f>
+        <v>-10.9375</v>
+      </c>
+      <c r="J118" s="7">
         <f>B118*0.75</f>
         <v>-6.5625</v>
       </c>
-      <c r="J118" s="7">
-        <f>B118*1.25</f>
-        <v>-10.9375</v>
-      </c>
       <c r="K118" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+    </row>
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -2497,7 +2529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -2505,15 +2537,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -2522,21 +2554,21 @@
       </c>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B126">
         <f>1-0.25</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>10</v>
       </c>
@@ -2556,22 +2588,22 @@
         <v>5</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="str">
         <f>B120</f>
         <v>market for battery capacity, Li-sulfur, Li-S</v>
@@ -2594,7 +2626,7 @@
         <v>battery capacity, Li-sulfur, Li-S</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -2621,18 +2653,18 @@
         <f>B130</f>
         <v>8.8888888888888893</v>
       </c>
-      <c r="I130" s="7">
-        <f>B130*0.75</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="J130" s="7">
-        <f>B130*1.25</f>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I130" s="3">
+        <f>1/(0.5*75%)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J130" s="3">
+        <f>1/(0.14*75%)</f>
+        <v>9.5238095238095237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B131" s="3">
         <f>-1*B130</f>
@@ -2648,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G131">
         <v>5</v>
@@ -2657,19 +2689,22 @@
         <f>B131</f>
         <v>-8.8888888888888893</v>
       </c>
-      <c r="I131" s="7">
-        <f>B131*0.75</f>
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="J131" s="7">
-        <f>B131*1.25</f>
-        <v>-11.111111111111111</v>
+      <c r="I131" s="3">
+        <f>-1/(0.14*75%)</f>
+        <v>-9.5238095238095237</v>
+      </c>
+      <c r="J131" s="3">
+        <f>-1/(0.5*75%)</f>
+        <v>-2.6666666666666665</v>
       </c>
       <c r="K131" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+    </row>
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
@@ -2677,15 +2712,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -2693,7 +2728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -2701,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -2709,7 +2744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2717,21 +2752,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B139">
         <f>1-0.45</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>10</v>
       </c>
@@ -2751,22 +2786,22 @@
         <v>5</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="str">
         <f>B133</f>
         <v>market for battery capacity, Li-ion, Li-O2</v>
@@ -2789,7 +2824,7 @@
         <v>battery capacity, Li-ion, Li-O2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -2825,9 +2860,9 @@
         <v>6.3131313131313131</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B144" s="3">
         <f>-1*B143</f>
@@ -2843,7 +2878,7 @@
         <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G144">
         <v>5</v>
@@ -2853,18 +2888,21 @@
         <v>-5.0505050505050502</v>
       </c>
       <c r="I144" s="7">
+        <f>B144*1.25</f>
+        <v>-6.3131313131313131</v>
+      </c>
+      <c r="J144" s="7">
         <f>B144*0.75</f>
         <v>-3.7878787878787876</v>
       </c>
-      <c r="J144" s="7">
-        <f>B144*1.25</f>
-        <v>-6.3131313131313131</v>
-      </c>
       <c r="K144" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+    </row>
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="146" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>0</v>
       </c>
@@ -2872,15 +2910,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -2888,7 +2926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -2896,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -2905,7 +2943,7 @@
       </c>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -2913,21 +2951,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B152">
         <f>1-0.25</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>10</v>
       </c>
@@ -2947,22 +2985,22 @@
         <v>5</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="str">
         <f>B146</f>
         <v>market for battery capacity, Sodium-ion, SiB</v>
@@ -2985,13 +3023,13 @@
         <v>battery capacity, Sodium-ion, SiB</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>48</v>
       </c>
       <c r="B156" s="3">
-        <f>1/(0.157*75%)</f>
-        <v>8.4925690021231421</v>
+        <f>1/(0.16*75%)</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
@@ -3010,24 +3048,24 @@
       </c>
       <c r="H156" s="7">
         <f>B156</f>
-        <v>8.4925690021231421</v>
-      </c>
-      <c r="I156" s="7">
-        <f>B156*0.75</f>
-        <v>6.369426751592357</v>
-      </c>
-      <c r="J156" s="7">
-        <f>B156*1.25</f>
-        <v>10.615711252653927</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="I156" s="3">
+        <f>1/(0.22*75%)</f>
+        <v>6.0606060606060606</v>
+      </c>
+      <c r="J156" s="3">
+        <f>1/(0.16*75%)</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B157" s="3">
         <f>-1*B156</f>
-        <v>-8.4925690021231421</v>
+        <v>-8.3333333333333339</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -3039,44 +3077,47 @@
         <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G157">
         <v>5</v>
       </c>
       <c r="H157" s="7">
         <f>B157</f>
-        <v>-8.4925690021231421</v>
-      </c>
-      <c r="I157" s="7">
-        <f>B157*0.75</f>
-        <v>-6.369426751592357</v>
-      </c>
-      <c r="J157" s="7">
-        <f>B157*1.25</f>
-        <v>-10.615711252653927</v>
+        <v>-8.3333333333333339</v>
+      </c>
+      <c r="I157" s="3">
+        <f>-1/(0.16*75%)</f>
+        <v>-8.3333333333333339</v>
+      </c>
+      <c r="J157" s="3">
+        <f>-1/(0.22*75%)</f>
+        <v>-6.0606060606060606</v>
       </c>
       <c r="K157" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+    </row>
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -3084,7 +3125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3092,15 +3133,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -3108,15 +3149,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>9</v>
       </c>
@@ -3127,7 +3168,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
@@ -3147,22 +3188,22 @@
         <v>5</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="str">
         <f>B159</f>
         <v>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl</v>
@@ -3185,7 +3226,7 @@
         <v>battery capacity, Na-NiCl</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>51</v>
       </c>
@@ -3221,9 +3262,9 @@
         <v>10.775862068965516</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B170" s="3">
         <f>-1*B169</f>
@@ -3239,7 +3280,7 @@
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -3249,19 +3290,27 @@
         <v>-8.6206896551724128</v>
       </c>
       <c r="I170" s="7">
+        <f>B170*1.25</f>
+        <v>-10.775862068965516</v>
+      </c>
+      <c r="J170" s="7">
         <f>B170*0.75</f>
         <v>-6.4655172413793096</v>
       </c>
-      <c r="J170" s="7">
-        <f>B170*1.25</f>
-        <v>-10.775862068965516</v>
-      </c>
       <c r="K170" t="b">
         <v>1</v>
       </c>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H170" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H170" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="market for battery, Li-sulfur, Li-S"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82F37C-A32B-6C40-A337-F64C74A0A4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135D48E6-E8E2-854B-A1D5-E090AB256471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="1940" windowWidth="23320" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21920" yWindow="500" windowWidth="23320" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="98">
   <si>
     <t>Activity</t>
   </si>
@@ -314,6 +314,24 @@
   </si>
   <si>
     <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC955 battery. Specific energy density in 2020: (min, mean, max) 0.300, 0.340, 0.380 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2030: 0.240 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides a market average for 1 kWh of battery gross capacity (NOT net). It is based on shares provided by Degen, F., Winter, M., Bendig, D. et al. Energy consumption of current and future production of lithium-ion and post lithium-ion battery cells. Nat Energy 8, 1284–1295 (2023). https://doi.org/10.1038/s41560-023-01355-z. The default scenario is "MIX scenario", which sees an increasing market share for novel post-lithium chemistries.</t>
+  </si>
+  <si>
+    <t>Market shares from Degen, F., Winter, M., Bendig, D. et al. Energy consumption of current and future production of lithium-ion and post lithium-ion battery cells. Nat Energy 8, 1284–1295 (2023). https://doi.org/10.1038/s41560-023-01355-z</t>
+  </si>
+  <si>
+    <t>market for battery capacity (MIX scenario)</t>
+  </si>
+  <si>
+    <t>market for battery capacity (LFP scenario)</t>
+  </si>
+  <si>
+    <t>market for battery capacity (NCx scenario)</t>
+  </si>
+  <si>
+    <t>market for battery capacity (PLiB scenario)</t>
   </si>
 </sst>
 </file>
@@ -398,7 +416,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -407,6 +425,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,10 +709,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:N266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J171" sqref="J171"/>
+      <selection activeCell="A12" sqref="A12:A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -810,7 +829,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
         <f>B3</f>
         <v>market for battery capacity, Li-ion, LFP</v>
@@ -1009,7 +1028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="str">
         <f>B16</f>
         <v>market for battery capacity, Li-ion, NMC111</v>
@@ -1208,7 +1227,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="str">
         <f>B29</f>
         <v>market for battery capacity, Li-ion, NMC523</v>
@@ -1409,7 +1428,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="str">
         <f>B42</f>
         <v>market for battery capacity, Li-ion, NMC622</v>
@@ -1608,7 +1627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="str">
         <f>B55</f>
         <v>market for battery capacity, Li-ion, NMC811</v>
@@ -1807,7 +1826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="str">
         <f>B68</f>
         <v>market for battery capacity, Li-ion, NMC955</v>
@@ -2006,7 +2025,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="str">
         <f>B81</f>
         <v>market for battery capacity, Li-ion, NCA</v>
@@ -2205,7 +2224,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="str">
         <f>B94</f>
         <v>market for battery capacity, Li-ion, LTO</v>
@@ -2404,7 +2423,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="str">
         <f>B107</f>
         <v>market for battery capacity, Li-ion, LiMn2O4</v>
@@ -2603,7 +2622,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="str">
         <f>B120</f>
         <v>market for battery capacity, Li-sulfur, Li-S</v>
@@ -2626,7 +2645,7 @@
         <v>battery capacity, Li-sulfur, Li-S</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -2801,7 +2820,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="str">
         <f>B133</f>
         <v>market for battery capacity, Li-ion, Li-O2</v>
@@ -3000,7 +3019,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="str">
         <f>B146</f>
         <v>market for battery capacity, Sodium-ion, SiB</v>
@@ -3203,7 +3222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="str">
         <f>B159</f>
         <v>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl</v>
@@ -3303,11 +3322,1523 @@
       <c r="M170" s="7"/>
       <c r="N170" s="7"/>
     </row>
+    <row r="172" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" s="8" t="str">
+        <f>B172</f>
+        <v>market for battery capacity (MIX scenario)</v>
+      </c>
+      <c r="B181" s="8">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" t="s">
+        <v>3</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+    </row>
+    <row r="182" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" t="s">
+        <v>3</v>
+      </c>
+      <c r="E191" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" t="s">
+        <v>3</v>
+      </c>
+      <c r="E193" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A194" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205" s="8" t="str">
+        <f>B196</f>
+        <v>market for battery capacity (LFP scenario)</v>
+      </c>
+      <c r="B205" s="8">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" t="s">
+        <v>3</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+    </row>
+    <row r="206" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" t="s">
+        <v>3</v>
+      </c>
+      <c r="E207" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>3</v>
+      </c>
+      <c r="E208" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" t="s">
+        <v>3</v>
+      </c>
+      <c r="E211" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" t="s">
+        <v>3</v>
+      </c>
+      <c r="E212" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" t="s">
+        <v>3</v>
+      </c>
+      <c r="E213" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" t="s">
+        <v>3</v>
+      </c>
+      <c r="E214" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" t="s">
+        <v>3</v>
+      </c>
+      <c r="E216" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" t="s">
+        <v>3</v>
+      </c>
+      <c r="E217" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218" t="s">
+        <v>15</v>
+      </c>
+      <c r="D218" t="s">
+        <v>3</v>
+      </c>
+      <c r="E218" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A229" s="8" t="str">
+        <f>B220</f>
+        <v>market for battery capacity (NCx scenario)</v>
+      </c>
+      <c r="B229" s="8">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>15</v>
+      </c>
+      <c r="D229" t="s">
+        <v>3</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+    </row>
+    <row r="230" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230" t="s">
+        <v>3</v>
+      </c>
+      <c r="E230" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
+        <v>15</v>
+      </c>
+      <c r="D231" t="s">
+        <v>3</v>
+      </c>
+      <c r="E231" t="s">
+        <v>14</v>
+      </c>
+      <c r="F231" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>15</v>
+      </c>
+      <c r="D232" t="s">
+        <v>3</v>
+      </c>
+      <c r="E232" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233" t="s">
+        <v>3</v>
+      </c>
+      <c r="E233" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" t="s">
+        <v>3</v>
+      </c>
+      <c r="E234" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" t="s">
+        <v>14</v>
+      </c>
+      <c r="F235" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236" t="s">
+        <v>3</v>
+      </c>
+      <c r="E236" t="s">
+        <v>14</v>
+      </c>
+      <c r="F236" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A237" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237" t="s">
+        <v>3</v>
+      </c>
+      <c r="E237" t="s">
+        <v>14</v>
+      </c>
+      <c r="F237" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A238" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" t="s">
+        <v>3</v>
+      </c>
+      <c r="E238" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239" t="s">
+        <v>3</v>
+      </c>
+      <c r="E239" t="s">
+        <v>14</v>
+      </c>
+      <c r="F239" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" t="s">
+        <v>3</v>
+      </c>
+      <c r="E240" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241" t="s">
+        <v>15</v>
+      </c>
+      <c r="D241" t="s">
+        <v>3</v>
+      </c>
+      <c r="E241" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242" t="s">
+        <v>3</v>
+      </c>
+      <c r="E242" t="s">
+        <v>14</v>
+      </c>
+      <c r="F242" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A253" s="8" t="str">
+        <f>B244</f>
+        <v>market for battery capacity (PLiB scenario)</v>
+      </c>
+      <c r="B253" s="8">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253" t="s">
+        <v>3</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+    </row>
+    <row r="254" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" t="s">
+        <v>3</v>
+      </c>
+      <c r="E254" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255" t="s">
+        <v>3</v>
+      </c>
+      <c r="E255" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>15</v>
+      </c>
+      <c r="D256" t="s">
+        <v>3</v>
+      </c>
+      <c r="E256" t="s">
+        <v>14</v>
+      </c>
+      <c r="F256" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257" t="s">
+        <v>3</v>
+      </c>
+      <c r="E257" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>15</v>
+      </c>
+      <c r="D259" t="s">
+        <v>3</v>
+      </c>
+      <c r="E259" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>15</v>
+      </c>
+      <c r="D260" t="s">
+        <v>3</v>
+      </c>
+      <c r="E260" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261" t="s">
+        <v>15</v>
+      </c>
+      <c r="D261" t="s">
+        <v>3</v>
+      </c>
+      <c r="E261" t="s">
+        <v>14</v>
+      </c>
+      <c r="F261" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A262" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" t="s">
+        <v>3</v>
+      </c>
+      <c r="E262" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" t="s">
+        <v>3</v>
+      </c>
+      <c r="E263" t="s">
+        <v>14</v>
+      </c>
+      <c r="F263" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" t="s">
+        <v>14</v>
+      </c>
+      <c r="F264" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" t="s">
+        <v>14</v>
+      </c>
+      <c r="F265" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A266" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266" t="s">
+        <v>3</v>
+      </c>
+      <c r="E266" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H170" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
+    <filterColumn colId="4">
       <filters>
-        <filter val="market for battery, Li-sulfur, Li-S"/>
+        <filter val="production"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135D48E6-E8E2-854B-A1D5-E090AB256471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006326B-0660-9348-9FEA-7BA103D7DD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21920" yWindow="500" windowWidth="23320" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="500" windowWidth="23320" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -425,7 +425,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,8 +710,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A155"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3415,11 +3414,11 @@
       <c r="K180" s="1"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" s="8" t="str">
+      <c r="A181" t="str">
         <f>B172</f>
         <v>market for battery capacity (MIX scenario)</v>
       </c>
-      <c r="B181" s="8">
+      <c r="B181">
         <v>1</v>
       </c>
       <c r="C181" t="s">
@@ -3428,10 +3427,10 @@
       <c r="D181" t="s">
         <v>3</v>
       </c>
-      <c r="E181" s="8" t="s">
+      <c r="E181" t="s">
         <v>13</v>
       </c>
-      <c r="F181" s="8" t="s">
+      <c r="F181" t="s">
         <v>36</v>
       </c>
       <c r="G181" s="1"/>
@@ -3793,11 +3792,11 @@
       <c r="K204" s="1"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205" s="8" t="str">
+      <c r="A205" t="str">
         <f>B196</f>
         <v>market for battery capacity (LFP scenario)</v>
       </c>
-      <c r="B205" s="8">
+      <c r="B205">
         <v>1</v>
       </c>
       <c r="C205" t="s">
@@ -3806,10 +3805,10 @@
       <c r="D205" t="s">
         <v>3</v>
       </c>
-      <c r="E205" s="8" t="s">
+      <c r="E205" t="s">
         <v>13</v>
       </c>
-      <c r="F205" s="8" t="s">
+      <c r="F205" t="s">
         <v>36</v>
       </c>
       <c r="G205" s="1"/>
@@ -4171,11 +4170,11 @@
       <c r="K228" s="1"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229" s="8" t="str">
+      <c r="A229" t="str">
         <f>B220</f>
         <v>market for battery capacity (NCx scenario)</v>
       </c>
-      <c r="B229" s="8">
+      <c r="B229">
         <v>1</v>
       </c>
       <c r="C229" t="s">
@@ -4184,10 +4183,10 @@
       <c r="D229" t="s">
         <v>3</v>
       </c>
-      <c r="E229" s="8" t="s">
+      <c r="E229" t="s">
         <v>13</v>
       </c>
-      <c r="F229" s="8" t="s">
+      <c r="F229" t="s">
         <v>36</v>
       </c>
       <c r="G229" s="1"/>
@@ -4549,11 +4548,11 @@
       <c r="K252" s="1"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A253" s="8" t="str">
+      <c r="A253" t="str">
         <f>B244</f>
         <v>market for battery capacity (PLiB scenario)</v>
       </c>
-      <c r="B253" s="8">
+      <c r="B253">
         <v>1</v>
       </c>
       <c r="C253" t="s">
@@ -4562,10 +4561,10 @@
       <c r="D253" t="s">
         <v>3</v>
       </c>
-      <c r="E253" s="8" t="s">
+      <c r="E253" t="s">
         <v>13</v>
       </c>
-      <c r="F253" s="8" t="s">
+      <c r="F253" t="s">
         <v>36</v>
       </c>
       <c r="G253" s="1"/>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006326B-0660-9348-9FEA-7BA103D7DD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9430B552-DEF7-1D4F-9BAE-C65E3E5754A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="500" windowWidth="23320" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
@@ -707,11 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -728,8 +727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -737,7 +735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -745,7 +743,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -753,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -761,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -769,7 +767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -778,7 +776,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -787,13 +785,13 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -851,7 +849,7 @@
         <v>battery capacity, Li-ion, LFP</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -887,7 +885,7 @@
         <v>9.7847358121330714</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -928,8 +926,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -937,7 +934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -945,7 +942,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -953,7 +950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -961,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -969,7 +966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -977,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -986,13 +983,13 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1047,7 @@
         <v>battery capacity, Li-ion, NMC111</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1083,7 @@
         <v>9.7847358121330714</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1127,8 +1124,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1144,7 +1140,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1168,7 +1164,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -1185,13 +1181,13 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -1249,7 +1245,7 @@
         <v>battery capacity, Li-ion, NMC523</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -1285,7 +1281,7 @@
         <v>8.058017727639001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1326,8 +1322,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -1343,7 +1338,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1351,7 +1346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1368,7 +1363,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1377,7 +1372,7 @@
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -1386,13 +1381,13 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -1450,7 +1445,7 @@
         <v>battery capacity, Li-ion, NMC622</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1481,7 @@
         <v>6.8493150684931514</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -1527,8 +1522,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -1544,7 +1538,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1552,7 +1546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1560,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1568,7 +1562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1577,12 +1571,12 @@
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1591,7 +1585,7 @@
         <v>0.1988</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -1649,7 +1643,7 @@
         <v>battery capacity, Li-ion, NMC811</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -1685,7 +1679,7 @@
         <v>5.868544600938967</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1726,8 +1720,7 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -1743,7 +1736,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -1751,7 +1744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1759,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1767,7 +1760,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +1769,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>58</v>
       </c>
@@ -1785,12 +1778,12 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -1848,7 +1841,7 @@
         <v>battery capacity, Li-ion, NMC955</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -1884,7 +1877,7 @@
         <v>4.694835680751174</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>64</v>
       </c>
@@ -1925,8 +1918,7 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -1942,7 +1934,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -1950,7 +1942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +1958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -1975,7 +1967,7 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -1984,12 +1976,12 @@
         <v>0.70700000000000007</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
@@ -2047,7 +2039,7 @@
         <v>battery capacity, Li-ion, NCA</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>34</v>
       </c>
@@ -2083,7 +2075,7 @@
         <v>5.868544600938967</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>64</v>
       </c>
@@ -2124,8 +2116,7 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
@@ -2133,7 +2124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -2141,7 +2132,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -2149,7 +2140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2157,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2166,7 +2157,7 @@
       </c>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -2174,7 +2165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>58</v>
       </c>
@@ -2183,12 +2174,12 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
@@ -2246,7 +2237,7 @@
         <v>battery capacity, Li-ion, LTO</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -2282,7 +2273,7 @@
         <v>22.977941176470587</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>64</v>
       </c>
@@ -2323,8 +2314,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>0</v>
       </c>
@@ -2332,7 +2322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -2340,7 +2330,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -2348,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -2356,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2364,7 +2354,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -2373,7 +2363,7 @@
       </c>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>58</v>
       </c>
@@ -2382,12 +2372,12 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
@@ -2445,7 +2435,7 @@
         <v>battery capacity, Li-ion, LiMn2O4</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -2481,7 +2471,7 @@
         <v>10.9375</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>64</v>
       </c>
@@ -2522,8 +2512,7 @@
       <c r="M118" s="7"/>
       <c r="N118" s="7"/>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -2539,7 +2528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -2547,7 +2536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -2555,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -2563,7 +2552,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -2572,7 +2561,7 @@
       </c>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>58</v>
       </c>
@@ -2581,12 +2570,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>10</v>
       </c>
@@ -2644,7 +2633,7 @@
         <v>battery capacity, Li-sulfur, Li-S</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -2680,7 +2669,7 @@
         <v>9.5238095238095237</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>64</v>
       </c>
@@ -2721,8 +2710,7 @@
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="133" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
@@ -2730,7 +2718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -2738,7 +2726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -2746,7 +2734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -2754,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -2762,7 +2750,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2770,7 +2758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>58</v>
       </c>
@@ -2779,12 +2767,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>10</v>
       </c>
@@ -2842,7 +2830,7 @@
         <v>battery capacity, Li-ion, Li-O2</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -2878,7 +2866,7 @@
         <v>6.3131313131313131</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>64</v>
       </c>
@@ -2919,8 +2907,7 @@
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="146" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>0</v>
       </c>
@@ -2928,7 +2915,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -2936,7 +2923,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -2944,7 +2931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -2952,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -2961,7 +2948,7 @@
       </c>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -2969,7 +2956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>58</v>
       </c>
@@ -2978,12 +2965,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>10</v>
       </c>
@@ -3041,7 +3028,7 @@
         <v>battery capacity, Sodium-ion, SiB</v>
       </c>
     </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>48</v>
       </c>
@@ -3077,7 +3064,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>64</v>
       </c>
@@ -3118,8 +3105,7 @@
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="159" spans="1:14" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +3113,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -3135,7 +3121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -3143,7 +3129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3151,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -3159,7 +3145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -3167,7 +3153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -3175,7 +3161,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>9</v>
       </c>
@@ -3186,7 +3172,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
@@ -3244,7 +3230,7 @@
         <v>battery capacity, Na-NiCl</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>51</v>
       </c>
@@ -3280,7 +3266,7 @@
         <v>10.775862068965516</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>64</v>
       </c>
@@ -4834,13 +4820,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H170" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="production"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H170" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9430B552-DEF7-1D4F-9BAE-C65E3E5754A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4FC347-EA2D-C849-AE76-02FF6614317C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
+    <sheet name="Battery - stationary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$H$170</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="125">
   <si>
     <t>Activity</t>
   </si>
@@ -88,250 +86,331 @@
     <t>kilowatt hour</t>
   </si>
   <si>
+    <t>market for battery capacity, Li-ion, LFP</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, LFP</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, LFP, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, LFP, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC111</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NMC111, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NMC111, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC622</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NMC111</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NMC622</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC811</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NMC811</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NMC811, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NMC622</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NMC622</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NCA</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NCA</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NCA, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NCA, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>battery capacity</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, LTO</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, LTO</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, LTO</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, LTO</t>
+  </si>
+  <si>
+    <t>market for battery, Li-sulfur, Li-S</t>
+  </si>
+  <si>
+    <t>battery, Li-S</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, Li-O2</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, Li-O2</t>
+  </si>
+  <si>
+    <t>market for battery, Li-oxygen, Li-O2</t>
+  </si>
+  <si>
+    <t>battery, Li-O2</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Sodium-ion, SiB</t>
+  </si>
+  <si>
+    <t>market for battery, Sodium-ion, SiB</t>
+  </si>
+  <si>
+    <t>battery, SiB</t>
+  </si>
+  <si>
+    <t>battery capacity, Sodium-ion, SiB</t>
+  </si>
+  <si>
+    <t>market for battery, NaCl</t>
+  </si>
+  <si>
+    <t>battery, NaCl</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LTO battery. Specific energy density in 2020: 0.085 kWh/kg cell. Battery management (BoP) mass share: 36%. Battery energy density in 2020: 0.053 kWh/kg battery. Battery mass per kWh: 18.4 kg. Lifetime: 10'000 cycles. Source for parameters: Life cycle assessment of battery electric buses. Transportation Research Part D: Transport and Environment. Linda Ager-Wick Ellingsen, Rebecca Jayne Thorne, Julia Wind, Erik Figenbaum, Mia Romare and Anders Nordelöf.</t>
+  </si>
+  <si>
+    <t>Inventories from ecoinvent 3.10</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Sodium-Nickel-Chloride battery. Battery energy density in 2020: 0.116 kWh/kg battery. Battery mass per kWh: 8.62 kg. Lifetime: 1'000-2'500. Source for parameters: Dustmann C.-H. (2004) Advances in ZEBRA batteries. Journal of Power Sources 127, 85-93. and Turconi, A. (2007) Developments and Improvements in Zebra Nickel Sodium Chloride Batteries. EVS-23, Dec. 2-5, Anaheim, DE.</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NMC811, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl</t>
+  </si>
+  <si>
+    <t>battery cell mass share</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Lithium-oxygen Li-O2 battery. Specific energy density in 2020: 0.360 kWh/kg cell. Battery management (BoP) mass share: 45%. Battery energy density in 2020: 0.238 kWh/kg battery (excl. O2 tanks). System energy density in 2020: 0.198 kWh/kg battery (incl. O2 tanks). Battery mass per kWh: 5.05 kg. Battery lifetime: 305 kWh/kg (1.76 MJ/km x 2e5 km / 321 kg). Source for parameters: Originally from Wang, F., Deng, Y., &amp; Yuan, C. (2020). Life cycle assessment of lithium oxygen battery for electric vehicles. Journal of Cleaner Production, 264, 121339. https://doi.org/10.1016/j.jclepro.2020.121339</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, LiMn2O4, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, LiMn2O4, rechargeable, prismatic</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LMO battery. Specific energy density in 2020: 0.13 kWh/kg cell. Battery management (BoP) mass share: 13%. Battery energy density in 2020: 0.114 kWh/kg battery. Battery mass per kWh: 18.4 kg. Lifetime: 10'000 cycles. Source for parameters: Life cycle assessment of battery electric buses. Transportation Research Part D: Transport and Environment. Linda Ager-Wick Ellingsen, Rebecca Jayne Thorne, Julia Wind, Erik Figenbaum, Mia Romare and Anders Nordelöf.</t>
+  </si>
+  <si>
+    <t>battery capacity, Na-NiCl</t>
+  </si>
+  <si>
+    <t>market for used Li-ion battery</t>
+  </si>
+  <si>
+    <t>used Li-ion battery</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, LiMn2O4</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, LiMn2O4</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-sulfur, Li-S</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-sulfur, Li-S</t>
+  </si>
+  <si>
+    <t>uncertainty type</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC523</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NMC523</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NMC523</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NMC523</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC955</t>
+  </si>
+  <si>
+    <t>battery capacity, Li-ion, NMC955</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NMC955</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NMC955</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LFP battery. Specific energy density in 2020: (min, mean, max) 0.140, 0.160, 0.190 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.10 kWh/kg battery. Battery mass per kWh: 8.6 kg. Lifetime: 3'000-3'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC111 battery. Specific cell energy density in 2020: (min, mean, max) 0.150, 0.180, 0.190 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.13 kWh/kg battery. Battery mass per kWh: 7.6 kg. Lifetime: 1'000-1'800 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC523 battery. Specific energy density in 2020: (min, mean, max) 0.170, 0.200, 0.220 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.150 kWh/kg battery. Battery mass per kWh: 6.95 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC622 battery. Specific energy density in 2020: (min, mean, max) 0.200, 0.240, 0.280 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.180 kWh/kg battery. Battery mass per kWh: 6.85 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC811 battery. Specific energy density in 2020: (min, mean, max) 0.240, 0.280, 0.340 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2020: 0.20 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 1'000-1'200 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NCA battery. Specific energy density in 2020: (min, mean, max) 0.240, 0.280, 0.340 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2020: 0.20 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 800-1'600 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Sodium-ion battery. Specific energy density in 2020: 0.157 kWh/kg cell. Battery management (BoP) mass share: 25%. Battery energy density in 2020: 0.12 kWh/kg battery. Battery mass per kWh: 8.5 kg. Lifetime: 628 kWh/kg cell (4000 cycles x 0.157 kWh) or 2'500-4'000 cycles. Source for parameters: Zhang, S., Steubing, B., Potter, H. K., Hansson, P. A., &amp; Nordberg, Å. (2024). Future climate impacts of sodium-ion batteries. Resources, Conservation and Recycling, 202, 107362. https://doi.org/10.1016/j.resconrec.2023.107362. Min and max values from: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion Li-S battery. Specific energy density in 2020: 0.15 kWh/kg cell, 0.5 kWh/kg cell in the future. Battery management (BoP) mass share: 25%. Battery energy density in 2020: 0.11 kWh/kg battery. Battery mass per kWh: 8.9 kg. Cycle life: 800-1'500 or Lifetime: 225 kWh/kg. Source: Wickerts et al. (2023). Prospective Life Cycle Assessment of Lithium-Sulfur Batteries for Stationary Energy Storage. ACS Sustainable Chemistry &amp; Engineering. https://doi.org/10.1021/acssuschemeng.3c00141</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC955 battery. Specific energy density in 2020: (min, mean, max) 0.300, 0.340, 0.380 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2030: 0.240 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>This dataset provides a market average for 1 kWh of battery gross capacity (NOT net). It is based on shares provided by Degen, F., Winter, M., Bendig, D. et al. Energy consumption of current and future production of lithium-ion and post lithium-ion battery cells. Nat Energy 8, 1284–1295 (2023). https://doi.org/10.1038/s41560-023-01355-z. The default scenario is "MIX scenario", which sees an increasing market share for novel post-lithium chemistries.</t>
+  </si>
+  <si>
+    <t>Market shares from Degen, F., Winter, M., Bendig, D. et al. Energy consumption of current and future production of lithium-ion and post lithium-ion battery cells. Nat Energy 8, 1284–1295 (2023). https://doi.org/10.1038/s41560-023-01355-z</t>
+  </si>
+  <si>
+    <t>market for battery capacity (MIX scenario)</t>
+  </si>
+  <si>
+    <t>market for battery capacity (LFP scenario)</t>
+  </si>
+  <si>
+    <t>market for battery capacity (NCx scenario)</t>
+  </si>
+  <si>
+    <t>market for battery capacity (PLiB scenario)</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, LFP, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC111, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC523, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC622, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC811, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC955, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Sodium-ion, SiB, stationary</t>
+  </si>
+  <si>
+    <t>market for battery, redox-flow, Vanadium</t>
+  </si>
+  <si>
+    <t>market for used redox-flow battery</t>
+  </si>
+  <si>
+    <t>used redox-flow battery</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a vanadium redox-flow battery. EFFECTIVE energy density in 2020: 0.0194 kWh/kg cell. Battery management (BoP) mass share: 21%. Source for parameters: https://doi.org/10.1021/acs.est.8b02073. Min and max values from: https://doi.org/10.1039/C7CP07456E</t>
+  </si>
+  <si>
+    <t>market for battery capacity, lead acid, rechargeable, stationary</t>
+  </si>
+  <si>
+    <t>battery capacity, lead acid</t>
+  </si>
+  <si>
+    <t>market for battery, lead acid, rechargeable, stationary</t>
+  </si>
+  <si>
+    <t>battery, lead acid, rechargeable, stationary</t>
+  </si>
+  <si>
+    <t>market for scrap lead acid battery</t>
+  </si>
+  <si>
+    <t>scrap lead acid battery</t>
+  </si>
+  <si>
+    <t>Activities from ecoinvent. Current energy values from: http://dx.doi.org/10.1016/j.rser.2014.10.072. Future energy density values from: https://doi.org/10.1007/s41918-022-00134-w</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl, stationary</t>
+  </si>
+  <si>
+    <t>market for battery capacity, stationary (CONT scenario)</t>
+  </si>
+  <si>
+    <t>market for battery capacity, stationary (TC scenario)</t>
+  </si>
+  <si>
+    <t>battery, redox-flow, Vanadium</t>
+  </si>
+  <si>
     <t>database</t>
   </si>
   <si>
-    <t>market for battery capacity, Li-ion, LFP</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, LFP</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, LFP, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, LFP, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, NMC111</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, NMC111, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, NMC111, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, NMC622</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NMC111</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NMC622</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, NMC811</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NMC811</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, NMC811, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, NMC622</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, NMC622</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, NCA</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NCA</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, NCA, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, NCA, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>battery capacity</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, LTO</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, LTO</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, LTO</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, LTO</t>
-  </si>
-  <si>
-    <t>market for battery, Li-sulfur, Li-S</t>
-  </si>
-  <si>
-    <t>battery, Li-S</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, Li-O2</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, Li-O2</t>
-  </si>
-  <si>
-    <t>market for battery, Li-oxygen, Li-O2</t>
-  </si>
-  <si>
-    <t>battery, Li-O2</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Sodium-ion, SiB</t>
-  </si>
-  <si>
-    <t>market for battery, Sodium-ion, SiB</t>
-  </si>
-  <si>
-    <t>battery, SiB</t>
-  </si>
-  <si>
-    <t>battery capacity, Sodium-ion, SiB</t>
-  </si>
-  <si>
-    <t>market for battery, NaCl</t>
-  </si>
-  <si>
-    <t>battery, NaCl</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LTO battery. Specific energy density in 2020: 0.085 kWh/kg cell. Battery management (BoP) mass share: 36%. Battery energy density in 2020: 0.053 kWh/kg battery. Battery mass per kWh: 18.4 kg. Lifetime: 10'000 cycles. Source for parameters: Life cycle assessment of battery electric buses. Transportation Research Part D: Transport and Environment. Linda Ager-Wick Ellingsen, Rebecca Jayne Thorne, Julia Wind, Erik Figenbaum, Mia Romare and Anders Nordelöf.</t>
-  </si>
-  <si>
-    <t>Inventories from ecoinvent 3.10</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Sodium-Nickel-Chloride battery. Battery energy density in 2020: 0.116 kWh/kg battery. Battery mass per kWh: 8.62 kg. Lifetime: 1'000-2'500. Source for parameters: Dustmann C.-H. (2004) Advances in ZEBRA batteries. Journal of Power Sources 127, 85-93. and Turconi, A. (2007) Developments and Improvements in Zebra Nickel Sodium Chloride Batteries. EVS-23, Dec. 2-5, Anaheim, DE.</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, NMC811, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl</t>
-  </si>
-  <si>
-    <t>battery cell mass share</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Lithium-oxygen Li-O2 battery. Specific energy density in 2020: 0.360 kWh/kg cell. Battery management (BoP) mass share: 45%. Battery energy density in 2020: 0.238 kWh/kg battery (excl. O2 tanks). System energy density in 2020: 0.198 kWh/kg battery (incl. O2 tanks). Battery mass per kWh: 5.05 kg. Battery lifetime: 305 kWh/kg (1.76 MJ/km x 2e5 km / 321 kg). Source for parameters: Originally from Wang, F., Deng, Y., &amp; Yuan, C. (2020). Life cycle assessment of lithium oxygen battery for electric vehicles. Journal of Cleaner Production, 264, 121339. https://doi.org/10.1016/j.jclepro.2020.121339</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, LiMn2O4, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, LiMn2O4, rechargeable, prismatic</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LMO battery. Specific energy density in 2020: 0.13 kWh/kg cell. Battery management (BoP) mass share: 13%. Battery energy density in 2020: 0.114 kWh/kg battery. Battery mass per kWh: 18.4 kg. Lifetime: 10'000 cycles. Source for parameters: Life cycle assessment of battery electric buses. Transportation Research Part D: Transport and Environment. Linda Ager-Wick Ellingsen, Rebecca Jayne Thorne, Julia Wind, Erik Figenbaum, Mia Romare and Anders Nordelöf.</t>
-  </si>
-  <si>
-    <t>battery capacity, Na-NiCl</t>
-  </si>
-  <si>
-    <t>market for used Li-ion battery</t>
-  </si>
-  <si>
-    <t>used Li-ion battery</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, LiMn2O4</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, LiMn2O4</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-sulfur, Li-S</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-sulfur, Li-S</t>
-  </si>
-  <si>
-    <t>uncertainty type</t>
-  </si>
-  <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, NMC523</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NMC523</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, NMC523</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, NMC523</t>
-  </si>
-  <si>
-    <t>market for battery capacity, Li-ion, NMC955</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NMC955</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, NMC955</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, NMC955</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LFP battery. Specific energy density in 2020: (min, mean, max) 0.140, 0.160, 0.190 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.10 kWh/kg battery. Battery mass per kWh: 8.6 kg. Lifetime: 3'000-3'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC111 battery. Specific cell energy density in 2020: (min, mean, max) 0.150, 0.180, 0.190 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.13 kWh/kg battery. Battery mass per kWh: 7.6 kg. Lifetime: 1'000-1'800 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC523 battery. Specific energy density in 2020: (min, mean, max) 0.170, 0.200, 0.220 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.150 kWh/kg battery. Battery mass per kWh: 6.95 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC622 battery. Specific energy density in 2020: (min, mean, max) 0.200, 0.240, 0.280 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.180 kWh/kg battery. Battery mass per kWh: 6.85 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC811 battery. Specific energy density in 2020: (min, mean, max) 0.240, 0.280, 0.340 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2020: 0.20 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 1'000-1'200 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NCA battery. Specific energy density in 2020: (min, mean, max) 0.240, 0.280, 0.340 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2020: 0.20 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 800-1'600 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Sodium-ion battery. Specific energy density in 2020: 0.157 kWh/kg cell. Battery management (BoP) mass share: 25%. Battery energy density in 2020: 0.12 kWh/kg battery. Battery mass per kWh: 8.5 kg. Lifetime: 628 kWh/kg cell (4000 cycles x 0.157 kWh) or 2'500-4'000 cycles. Source for parameters: Zhang, S., Steubing, B., Potter, H. K., Hansson, P. A., &amp; Nordberg, Å. (2024). Future climate impacts of sodium-ion batteries. Resources, Conservation and Recycling, 202, 107362. https://doi.org/10.1016/j.resconrec.2023.107362. Min and max values from: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion Li-S battery. Specific energy density in 2020: 0.15 kWh/kg cell, 0.5 kWh/kg cell in the future. Battery management (BoP) mass share: 25%. Battery energy density in 2020: 0.11 kWh/kg battery. Battery mass per kWh: 8.9 kg. Cycle life: 800-1'500 or Lifetime: 225 kWh/kg. Source: Wickerts et al. (2023). Prospective Life Cycle Assessment of Lithium-Sulfur Batteries for Stationary Energy Storage. ACS Sustainable Chemistry &amp; Engineering. https://doi.org/10.1021/acssuschemeng.3c00141</t>
-  </si>
-  <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (not NET), using a Li-ion NMC955 battery. Specific energy density in 2020: (min, mean, max) 0.300, 0.340, 0.380 kWh/kg cell. Battery management (BoP) mass share: 29%. Battery energy density in 2030: 0.240 kWh/kg battery. Battery mass per kWh: 5.03 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
-    <t>This dataset provides a market average for 1 kWh of battery gross capacity (NOT net). It is based on shares provided by Degen, F., Winter, M., Bendig, D. et al. Energy consumption of current and future production of lithium-ion and post lithium-ion battery cells. Nat Energy 8, 1284–1295 (2023). https://doi.org/10.1038/s41560-023-01355-z. The default scenario is "MIX scenario", which sees an increasing market share for novel post-lithium chemistries.</t>
-  </si>
-  <si>
-    <t>Market shares from Degen, F., Winter, M., Bendig, D. et al. Energy consumption of current and future production of lithium-ion and post lithium-ion battery cells. Nat Energy 8, 1284–1295 (2023). https://doi.org/10.1038/s41560-023-01355-z</t>
-  </si>
-  <si>
-    <t>market for battery capacity (MIX scenario)</t>
-  </si>
-  <si>
-    <t>market for battery capacity (LFP scenario)</t>
-  </si>
-  <si>
-    <t>market for battery capacity (NCx scenario)</t>
-  </si>
-  <si>
-    <t>market for battery capacity (PLiB scenario)</t>
+    <t>batteries</t>
+  </si>
+  <si>
+    <t>market for battery capacity, redox-flow, Vanadium, stationary</t>
+  </si>
+  <si>
+    <t>This dataset provides a market average for 1 kWh of battery gross capacity (NOT net). It is based on shares provided by Schlichenmaier &amp; Naegler (2022) https://doi.org/10.1016/j.egyr.2022.11.025</t>
+  </si>
+  <si>
+    <t>battery capacity, redox-flow, Vanadium</t>
+  </si>
+  <si>
+    <t>Market shares provided by Schlichenmaier &amp; Naegler (2022) https://doi.org/10.1016/j.egyr.2022.11.025</t>
   </si>
 </sst>
 </file>
@@ -709,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -721,10 +800,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -732,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -740,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -764,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -778,7 +857,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <f>1-0.27</f>
@@ -811,19 +890,19 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -851,7 +930,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="7">
         <f>1/(0.16*(1-27%))</f>
@@ -867,7 +946,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -887,7 +966,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="7">
         <f>-1*B13</f>
@@ -903,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -931,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -939,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -963,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -976,7 +1055,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <f>1-0.27</f>
@@ -1009,19 +1088,19 @@
         <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -1049,7 +1128,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3">
         <f>1/(0.18*73%)</f>
@@ -1065,7 +1144,7 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -1085,7 +1164,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="3">
         <f>-1*B26</f>
@@ -1101,7 +1180,7 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1129,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -1137,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1161,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -1174,7 +1253,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <f>1-0.27</f>
@@ -1207,19 +1286,19 @@
         <v>5</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -1247,7 +1326,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="3">
         <f>1/(0.2*73%)</f>
@@ -1263,7 +1342,7 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -1283,7 +1362,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="3">
         <f>-1*B39</f>
@@ -1299,7 +1378,7 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -1327,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -1335,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -1359,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -1374,7 +1453,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <f>1-0.27</f>
@@ -1407,19 +1486,19 @@
         <v>5</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -1447,7 +1526,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="3">
         <f>1/(0.24*73%)</f>
@@ -1463,7 +1542,7 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -1483,7 +1562,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="3">
         <f>-1*B52</f>
@@ -1499,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -1527,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -1535,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -1559,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -1573,7 +1652,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -1605,19 +1684,19 @@
         <v>5</v>
       </c>
       <c r="G63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -1645,7 +1724,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65" s="3">
         <f>1/(0.28*71%)</f>
@@ -1661,7 +1740,7 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G65">
         <v>5</v>
@@ -1681,7 +1760,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="3">
         <f>-1*B65</f>
@@ -1697,7 +1776,7 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66">
         <v>5</v>
@@ -1725,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -1733,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -1757,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -1771,7 +1850,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74">
         <f>1-0.29</f>
@@ -1803,19 +1882,19 @@
         <v>5</v>
       </c>
       <c r="G76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -1843,7 +1922,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="3">
         <f>1/(0.34*71%)</f>
@@ -1859,7 +1938,7 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G78">
         <v>5</v>
@@ -1879,7 +1958,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" s="3">
         <f>-1*B78</f>
@@ -1895,7 +1974,7 @@
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -1923,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -1931,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -1955,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -1969,7 +2048,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B87">
         <f>1-0.293</f>
@@ -2001,19 +2080,19 @@
         <v>5</v>
       </c>
       <c r="G89" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="K89" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2041,7 +2120,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B91" s="3">
         <f>1/(0.28*71%)</f>
@@ -2057,7 +2136,7 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -2077,7 +2156,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" s="3">
         <f>-1*B91</f>
@@ -2093,7 +2172,7 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G92">
         <v>5</v>
@@ -2121,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -2129,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -2153,7 +2232,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -2167,7 +2246,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B100">
         <f>1-0.36</f>
@@ -2199,19 +2278,19 @@
         <v>5</v>
       </c>
       <c r="G102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="K102" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2239,7 +2318,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B104" s="3">
         <f>1/(0.085*64%)</f>
@@ -2255,7 +2334,7 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -2275,7 +2354,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B105" s="3">
         <f>-1*B104</f>
@@ -2291,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G105">
         <v>5</v>
@@ -2319,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -2327,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -2351,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -2365,7 +2444,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B113">
         <f>1-0.13</f>
@@ -2397,19 +2476,19 @@
         <v>5</v>
       </c>
       <c r="G115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="I115" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="J115" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="K115" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2437,7 +2516,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B117" s="3">
         <f>1/(32/280)</f>
@@ -2453,7 +2532,7 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G117">
         <v>5</v>
@@ -2473,7 +2552,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B118" s="3">
         <f>-1*B117</f>
@@ -2489,7 +2568,7 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -2517,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -2525,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -2549,7 +2628,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -2563,7 +2642,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B126">
         <f>1-0.25</f>
@@ -2595,19 +2674,19 @@
         <v>5</v>
       </c>
       <c r="G128" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="I128" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="J128" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="K128" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2635,7 +2714,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B130" s="3">
         <f>1/(0.15*75%)</f>
@@ -2651,7 +2730,7 @@
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G130">
         <v>5</v>
@@ -2671,7 +2750,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B131" s="3">
         <f>-1*B130</f>
@@ -2687,7 +2766,7 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G131">
         <v>5</v>
@@ -2715,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -2723,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -2747,7 +2826,7 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -2760,7 +2839,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B139">
         <f>1-0.45</f>
@@ -2792,19 +2871,19 @@
         <v>5</v>
       </c>
       <c r="G141" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H141" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="I141" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="J141" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="K141" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2832,7 +2911,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B143" s="3">
         <f>1/0.198</f>
@@ -2848,7 +2927,7 @@
         <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G143">
         <v>5</v>
@@ -2868,7 +2947,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B144" s="3">
         <f>-1*B143</f>
@@ -2884,7 +2963,7 @@
         <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G144">
         <v>5</v>
@@ -2912,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
@@ -2920,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -2944,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E150" s="3"/>
     </row>
@@ -2958,7 +3037,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B152">
         <f>1-0.25</f>
@@ -2990,19 +3069,19 @@
         <v>5</v>
       </c>
       <c r="G154" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H154" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="I154" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="J154" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J154" s="1" t="s">
+      <c r="K154" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K154" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -3030,7 +3109,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B156" s="3">
         <f>1/(0.16*75%)</f>
@@ -3046,7 +3125,7 @@
         <v>14</v>
       </c>
       <c r="F156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G156">
         <v>5</v>
@@ -3066,7 +3145,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B157" s="3">
         <f>-1*B156</f>
@@ -3082,7 +3161,7 @@
         <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -3110,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
@@ -3118,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
@@ -3142,7 +3221,7 @@
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -3158,7 +3237,7 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -3192,19 +3271,19 @@
         <v>5</v>
       </c>
       <c r="G167" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="I167" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I167" s="1" t="s">
+      <c r="J167" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J167" s="1" t="s">
+      <c r="K167" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K167" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -3232,7 +3311,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B169" s="3">
         <f>1/0.116</f>
@@ -3248,7 +3327,7 @@
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G169">
         <v>5</v>
@@ -3268,7 +3347,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B170" s="3">
         <f>-1*B169</f>
@@ -3284,7 +3363,7 @@
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -3312,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -3320,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -3344,7 +3423,7 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
@@ -3360,7 +3439,7 @@
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -3417,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -3427,27 +3506,27 @@
     </row>
     <row r="182" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" t="s">
         <v>17</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="C182" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" t="s">
-        <v>3</v>
-      </c>
-      <c r="E182" t="s">
-        <v>14</v>
-      </c>
-      <c r="F182" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3462,32 +3541,32 @@
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" t="s">
         <v>75</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="C184" t="s">
-        <v>15</v>
-      </c>
-      <c r="D184" t="s">
-        <v>3</v>
-      </c>
-      <c r="E184" t="s">
-        <v>14</v>
-      </c>
-      <c r="F184" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3502,152 +3581,152 @@
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" t="s">
         <v>27</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="C186" t="s">
-        <v>15</v>
-      </c>
-      <c r="D186" t="s">
-        <v>3</v>
-      </c>
-      <c r="E186" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="s">
         <v>79</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-      <c r="C187" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" t="s">
-        <v>3</v>
-      </c>
-      <c r="E187" t="s">
-        <v>14</v>
-      </c>
-      <c r="F187" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" t="s">
         <v>32</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-      <c r="C188" t="s">
-        <v>15</v>
-      </c>
-      <c r="D188" t="s">
-        <v>3</v>
-      </c>
-      <c r="E188" t="s">
-        <v>14</v>
-      </c>
-      <c r="F188" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" t="s">
         <v>37</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="C189" t="s">
-        <v>15</v>
-      </c>
-      <c r="D189" t="s">
-        <v>3</v>
-      </c>
-      <c r="E189" t="s">
-        <v>14</v>
-      </c>
-      <c r="F189" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" t="s">
         <v>66</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="C190" t="s">
-        <v>15</v>
-      </c>
-      <c r="D190" t="s">
-        <v>3</v>
-      </c>
-      <c r="E190" t="s">
-        <v>14</v>
-      </c>
-      <c r="F190" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" t="s">
+        <v>3</v>
+      </c>
+      <c r="E191" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" t="s">
         <v>68</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-      <c r="C191" t="s">
-        <v>15</v>
-      </c>
-      <c r="D191" t="s">
-        <v>3</v>
-      </c>
-      <c r="E191" t="s">
-        <v>14</v>
-      </c>
-      <c r="F191" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" t="s">
         <v>43</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-      <c r="C192" t="s">
-        <v>15</v>
-      </c>
-      <c r="D192" t="s">
-        <v>3</v>
-      </c>
-      <c r="E192" t="s">
-        <v>14</v>
-      </c>
-      <c r="F192" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -3662,12 +3741,12 @@
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -3682,7 +3761,7 @@
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3690,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -3698,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -3722,7 +3801,7 @@
         <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -3738,7 +3817,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
@@ -3795,7 +3874,7 @@
         <v>13</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -3805,27 +3884,27 @@
     </row>
     <row r="206" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" t="s">
         <v>17</v>
-      </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-      <c r="C206" t="s">
-        <v>15</v>
-      </c>
-      <c r="D206" t="s">
-        <v>3</v>
-      </c>
-      <c r="E206" t="s">
-        <v>14</v>
-      </c>
-      <c r="F206" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -3840,32 +3919,32 @@
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>3</v>
+      </c>
+      <c r="E208" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" t="s">
         <v>75</v>
-      </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-      <c r="C208" t="s">
-        <v>15</v>
-      </c>
-      <c r="D208" t="s">
-        <v>3</v>
-      </c>
-      <c r="E208" t="s">
-        <v>14</v>
-      </c>
-      <c r="F208" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -3880,152 +3959,152 @@
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210" t="s">
         <v>27</v>
-      </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-      <c r="C210" t="s">
-        <v>15</v>
-      </c>
-      <c r="D210" t="s">
-        <v>3</v>
-      </c>
-      <c r="E210" t="s">
-        <v>14</v>
-      </c>
-      <c r="F210" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" t="s">
+        <v>3</v>
+      </c>
+      <c r="E211" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" t="s">
         <v>79</v>
-      </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-      <c r="C211" t="s">
-        <v>15</v>
-      </c>
-      <c r="D211" t="s">
-        <v>3</v>
-      </c>
-      <c r="E211" t="s">
-        <v>14</v>
-      </c>
-      <c r="F211" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" t="s">
+        <v>3</v>
+      </c>
+      <c r="E212" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212" t="s">
         <v>32</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="C212" t="s">
-        <v>15</v>
-      </c>
-      <c r="D212" t="s">
-        <v>3</v>
-      </c>
-      <c r="E212" t="s">
-        <v>14</v>
-      </c>
-      <c r="F212" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" t="s">
+        <v>3</v>
+      </c>
+      <c r="E213" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213" t="s">
         <v>37</v>
-      </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-      <c r="C213" t="s">
-        <v>15</v>
-      </c>
-      <c r="D213" t="s">
-        <v>3</v>
-      </c>
-      <c r="E213" t="s">
-        <v>14</v>
-      </c>
-      <c r="F213" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" t="s">
+        <v>3</v>
+      </c>
+      <c r="E214" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" t="s">
         <v>66</v>
-      </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-      <c r="C214" t="s">
-        <v>15</v>
-      </c>
-      <c r="D214" t="s">
-        <v>3</v>
-      </c>
-      <c r="E214" t="s">
-        <v>14</v>
-      </c>
-      <c r="F214" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" t="s">
         <v>68</v>
-      </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-      <c r="C215" t="s">
-        <v>15</v>
-      </c>
-      <c r="D215" t="s">
-        <v>3</v>
-      </c>
-      <c r="E215" t="s">
-        <v>14</v>
-      </c>
-      <c r="F215" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" t="s">
+        <v>3</v>
+      </c>
+      <c r="E216" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" t="s">
         <v>43</v>
-      </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-      <c r="C216" t="s">
-        <v>15</v>
-      </c>
-      <c r="D216" t="s">
-        <v>3</v>
-      </c>
-      <c r="E216" t="s">
-        <v>14</v>
-      </c>
-      <c r="F216" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -4040,12 +4119,12 @@
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -4060,7 +4139,7 @@
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4068,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -4076,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -4100,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -4116,7 +4195,7 @@
         <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
@@ -4173,7 +4252,7 @@
         <v>13</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -4183,27 +4262,27 @@
     </row>
     <row r="230" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230" t="s">
+        <v>3</v>
+      </c>
+      <c r="E230" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230" t="s">
         <v>17</v>
-      </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-      <c r="C230" t="s">
-        <v>15</v>
-      </c>
-      <c r="D230" t="s">
-        <v>3</v>
-      </c>
-      <c r="E230" t="s">
-        <v>14</v>
-      </c>
-      <c r="F230" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -4218,32 +4297,32 @@
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>15</v>
+      </c>
+      <c r="D232" t="s">
+        <v>3</v>
+      </c>
+      <c r="E232" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" t="s">
         <v>75</v>
-      </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-      <c r="C232" t="s">
-        <v>15</v>
-      </c>
-      <c r="D232" t="s">
-        <v>3</v>
-      </c>
-      <c r="E232" t="s">
-        <v>14</v>
-      </c>
-      <c r="F232" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -4258,152 +4337,152 @@
         <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" t="s">
+        <v>3</v>
+      </c>
+      <c r="E234" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234" t="s">
         <v>27</v>
-      </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-      <c r="C234" t="s">
-        <v>15</v>
-      </c>
-      <c r="D234" t="s">
-        <v>3</v>
-      </c>
-      <c r="E234" t="s">
-        <v>14</v>
-      </c>
-      <c r="F234" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" t="s">
+        <v>14</v>
+      </c>
+      <c r="F235" t="s">
         <v>79</v>
-      </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-      <c r="C235" t="s">
-        <v>15</v>
-      </c>
-      <c r="D235" t="s">
-        <v>3</v>
-      </c>
-      <c r="E235" t="s">
-        <v>14</v>
-      </c>
-      <c r="F235" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236" t="s">
+        <v>3</v>
+      </c>
+      <c r="E236" t="s">
+        <v>14</v>
+      </c>
+      <c r="F236" t="s">
         <v>32</v>
-      </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-      <c r="C236" t="s">
-        <v>15</v>
-      </c>
-      <c r="D236" t="s">
-        <v>3</v>
-      </c>
-      <c r="E236" t="s">
-        <v>14</v>
-      </c>
-      <c r="F236" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237" t="s">
+        <v>3</v>
+      </c>
+      <c r="E237" t="s">
+        <v>14</v>
+      </c>
+      <c r="F237" t="s">
         <v>37</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-      <c r="C237" t="s">
-        <v>15</v>
-      </c>
-      <c r="D237" t="s">
-        <v>3</v>
-      </c>
-      <c r="E237" t="s">
-        <v>14</v>
-      </c>
-      <c r="F237" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" t="s">
+        <v>3</v>
+      </c>
+      <c r="E238" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238" t="s">
         <v>66</v>
-      </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-      <c r="C238" t="s">
-        <v>15</v>
-      </c>
-      <c r="D238" t="s">
-        <v>3</v>
-      </c>
-      <c r="E238" t="s">
-        <v>14</v>
-      </c>
-      <c r="F238" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239" t="s">
+        <v>3</v>
+      </c>
+      <c r="E239" t="s">
+        <v>14</v>
+      </c>
+      <c r="F239" t="s">
         <v>68</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-      <c r="C239" t="s">
-        <v>15</v>
-      </c>
-      <c r="D239" t="s">
-        <v>3</v>
-      </c>
-      <c r="E239" t="s">
-        <v>14</v>
-      </c>
-      <c r="F239" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" t="s">
+        <v>3</v>
+      </c>
+      <c r="E240" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" t="s">
         <v>43</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-      <c r="C240" t="s">
-        <v>15</v>
-      </c>
-      <c r="D240" t="s">
-        <v>3</v>
-      </c>
-      <c r="E240" t="s">
-        <v>14</v>
-      </c>
-      <c r="F240" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -4418,12 +4497,12 @@
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -4438,7 +4517,7 @@
         <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4446,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
@@ -4454,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
@@ -4478,7 +4557,7 @@
         <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
@@ -4494,7 +4573,7 @@
         <v>8</v>
       </c>
       <c r="B250" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
@@ -4551,7 +4630,7 @@
         <v>13</v>
       </c>
       <c r="F253" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -4561,27 +4640,27 @@
     </row>
     <row r="254" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" t="s">
+        <v>3</v>
+      </c>
+      <c r="E254" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254" t="s">
         <v>17</v>
-      </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-      <c r="C254" t="s">
-        <v>15</v>
-      </c>
-      <c r="D254" t="s">
-        <v>3</v>
-      </c>
-      <c r="E254" t="s">
-        <v>14</v>
-      </c>
-      <c r="F254" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -4596,32 +4675,32 @@
         <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>15</v>
+      </c>
+      <c r="D256" t="s">
+        <v>3</v>
+      </c>
+      <c r="E256" t="s">
+        <v>14</v>
+      </c>
+      <c r="F256" t="s">
         <v>75</v>
-      </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-      <c r="C256" t="s">
-        <v>15</v>
-      </c>
-      <c r="D256" t="s">
-        <v>3</v>
-      </c>
-      <c r="E256" t="s">
-        <v>14</v>
-      </c>
-      <c r="F256" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -4636,152 +4715,152 @@
         <v>14</v>
       </c>
       <c r="F257" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" t="s">
         <v>27</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-      <c r="C258" t="s">
-        <v>15</v>
-      </c>
-      <c r="D258" t="s">
-        <v>3</v>
-      </c>
-      <c r="E258" t="s">
-        <v>14</v>
-      </c>
-      <c r="F258" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>15</v>
+      </c>
+      <c r="D259" t="s">
+        <v>3</v>
+      </c>
+      <c r="E259" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" t="s">
         <v>79</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-      <c r="C259" t="s">
-        <v>15</v>
-      </c>
-      <c r="D259" t="s">
-        <v>3</v>
-      </c>
-      <c r="E259" t="s">
-        <v>14</v>
-      </c>
-      <c r="F259" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>15</v>
+      </c>
+      <c r="D260" t="s">
+        <v>3</v>
+      </c>
+      <c r="E260" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260" t="s">
         <v>32</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-      <c r="C260" t="s">
-        <v>15</v>
-      </c>
-      <c r="D260" t="s">
-        <v>3</v>
-      </c>
-      <c r="E260" t="s">
-        <v>14</v>
-      </c>
-      <c r="F260" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261" t="s">
+        <v>15</v>
+      </c>
+      <c r="D261" t="s">
+        <v>3</v>
+      </c>
+      <c r="E261" t="s">
+        <v>14</v>
+      </c>
+      <c r="F261" t="s">
         <v>37</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-      <c r="C261" t="s">
-        <v>15</v>
-      </c>
-      <c r="D261" t="s">
-        <v>3</v>
-      </c>
-      <c r="E261" t="s">
-        <v>14</v>
-      </c>
-      <c r="F261" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" t="s">
+        <v>3</v>
+      </c>
+      <c r="E262" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" t="s">
         <v>66</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-      <c r="C262" t="s">
-        <v>15</v>
-      </c>
-      <c r="D262" t="s">
-        <v>3</v>
-      </c>
-      <c r="E262" t="s">
-        <v>14</v>
-      </c>
-      <c r="F262" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" t="s">
+        <v>3</v>
+      </c>
+      <c r="E263" t="s">
+        <v>14</v>
+      </c>
+      <c r="F263" t="s">
         <v>68</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-      <c r="C263" t="s">
-        <v>15</v>
-      </c>
-      <c r="D263" t="s">
-        <v>3</v>
-      </c>
-      <c r="E263" t="s">
-        <v>14</v>
-      </c>
-      <c r="F263" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" t="s">
+        <v>14</v>
+      </c>
+      <c r="F264" t="s">
         <v>43</v>
-      </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-      <c r="C264" t="s">
-        <v>15</v>
-      </c>
-      <c r="D264" t="s">
-        <v>3</v>
-      </c>
-      <c r="E264" t="s">
-        <v>14</v>
-      </c>
-      <c r="F264" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -4796,31 +4875,2789 @@
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266" t="s">
+        <v>3</v>
+      </c>
+      <c r="E266" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}">
+  <dimension ref="A1:N203"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-      <c r="C266" t="s">
-        <v>15</v>
-      </c>
-      <c r="D266" t="s">
-        <v>3</v>
-      </c>
-      <c r="E266" t="s">
-        <v>14</v>
-      </c>
-      <c r="F266" t="s">
+      <c r="B7">
+        <f>1-0.27</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="str">
+        <f>B1</f>
+        <v>market for battery capacity, Li-ion, LFP, stationary</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <f>B6</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="str">
+        <f>B5</f>
+        <v>battery capacity, Li-ion, LFP</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7">
+        <f>1/(0.16*(1-27%))</f>
+        <v>8.5616438356164384</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <f>B11</f>
+        <v>8.5616438356164384</v>
+      </c>
+      <c r="I11" s="7">
+        <f>1/(0.19*(1-27%))</f>
+        <v>7.2098053352559486</v>
+      </c>
+      <c r="J11" s="7">
+        <f>1/(0.14*(1-27%))</f>
+        <v>9.7847358121330714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
+      <c r="B12" s="7">
+        <f>-1*B11</f>
+        <v>-8.5616438356164384</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <f>B12</f>
+        <v>-8.5616438356164384</v>
+      </c>
+      <c r="I12" s="7">
+        <f>-1/(0.14*(1-27%))</f>
+        <v>-9.7847358121330714</v>
+      </c>
+      <c r="J12" s="7">
+        <f>-1/(0.19*(1-27%))</f>
+        <v>-7.2098053352559486</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <f>1-0.27</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="str">
+        <f>B14</f>
+        <v>market for battery capacity, Li-ion, NMC111, stationary</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <f>B19</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="str">
+        <f>B18</f>
+        <v>battery capacity, Li-ion, NMC111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <f>1/(0.18*73%)</f>
+        <v>7.6103500761035017</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" s="7">
+        <f>B24</f>
+        <v>7.6103500761035017</v>
+      </c>
+      <c r="I24" s="7">
+        <f>1/(0.19*73%)</f>
+        <v>7.2098053352559486</v>
+      </c>
+      <c r="J24" s="7">
+        <f>1/(0.14*73%)</f>
+        <v>9.7847358121330714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="3">
+        <f>-1*B24</f>
+        <v>-7.6103500761035017</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" s="7">
+        <f>B25</f>
+        <v>-7.6103500761035017</v>
+      </c>
+      <c r="I25" s="7">
+        <f>-1/(0.14*(1-27%))</f>
+        <v>-9.7847358121330714</v>
+      </c>
+      <c r="J25" s="7">
+        <f>-1/(0.19*73%)</f>
+        <v>-7.2098053352559486</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <f>1-0.27</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="str">
+        <f>B27</f>
+        <v>market for battery capacity, Li-ion, NMC523, stationary</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
+        <f>B32</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="str">
+        <f>B31</f>
+        <v>battery capacity, Li-ion, NMC523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="3">
+        <f>1/(0.2*73%)</f>
+        <v>6.8493150684931514</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" s="7">
+        <f>B37</f>
+        <v>6.8493150684931514</v>
+      </c>
+      <c r="I37" s="3">
+        <f>1/(0.22*73%)</f>
+        <v>6.2266500622665006</v>
+      </c>
+      <c r="J37" s="3">
+        <f>1/(0.17*73%)</f>
+        <v>8.058017727639001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="3">
+        <f>-1*B37</f>
+        <v>-6.8493150684931514</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" s="7">
+        <f>B38</f>
+        <v>-6.8493150684931514</v>
+      </c>
+      <c r="I38" s="3">
+        <f>-1/(0.17*73%)</f>
+        <v>-8.058017727639001</v>
+      </c>
+      <c r="J38" s="3">
+        <f>-1/(0.22*73%)</f>
+        <v>-6.2266500622665006</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <f>1-0.27</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="str">
+        <f>B40</f>
+        <v>market for battery capacity, Li-ion, NMC622, stationary</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <f>B45</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="str">
+        <f>B44</f>
+        <v>battery capacity, Li-ion, NMC622</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="3">
+        <f>1/(0.24*73%)</f>
+        <v>5.7077625570776256</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50" s="7">
+        <f>B50</f>
+        <v>5.7077625570776256</v>
+      </c>
+      <c r="I50" s="3">
+        <f>1/(0.28*73%)</f>
+        <v>4.8923679060665357</v>
+      </c>
+      <c r="J50" s="3">
+        <f>1/(0.2*73%)</f>
+        <v>6.8493150684931514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="3">
+        <f>-1*B50</f>
+        <v>-5.7077625570776256</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51" s="7">
+        <f>B51</f>
+        <v>-5.7077625570776256</v>
+      </c>
+      <c r="I51" s="3">
+        <f>-1/(0.2*73%)</f>
+        <v>-6.8493150684931514</v>
+      </c>
+      <c r="J51" s="3">
+        <f>-1/(0.28*73%)</f>
+        <v>-4.8923679060665357</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="3">
+        <f>(0.28*71%)</f>
+        <v>0.1988</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="str">
+        <f>B53</f>
+        <v>market for battery capacity, Li-ion, NMC811, stationary</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="str">
+        <f>B58</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="str">
+        <f>B57</f>
+        <v>battery capacity, Li-ion, NMC811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="3">
+        <f>1/(0.28*71%)</f>
+        <v>5.0301810865191143</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63" s="7">
+        <f>B63</f>
+        <v>5.0301810865191143</v>
+      </c>
+      <c r="I63" s="3">
+        <f>1/(0.34*71%)</f>
+        <v>4.1425020712510356</v>
+      </c>
+      <c r="J63" s="3">
+        <f>1/(0.24*71%)</f>
+        <v>5.868544600938967</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <f>-1*B63</f>
+        <v>-5.0301810865191143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64" s="7">
+        <f>B64</f>
+        <v>-5.0301810865191143</v>
+      </c>
+      <c r="I64" s="3">
+        <f>-1/(0.24*71%)</f>
+        <v>-5.868544600938967</v>
+      </c>
+      <c r="J64" s="3">
+        <f>-1/(0.34*71%)</f>
+        <v>-4.1425020712510356</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72">
+        <f>1-0.29</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="str">
+        <f>B66</f>
+        <v>market for battery capacity, Li-ion, NMC955, stationary</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="str">
+        <f>B71</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="str">
+        <f>B70</f>
+        <v>battery capacity, Li-ion, NMC955</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="3">
+        <f>1/(0.34*71%)</f>
+        <v>4.1425020712510356</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76" s="7">
+        <f>B76</f>
+        <v>4.1425020712510356</v>
+      </c>
+      <c r="I76" s="3">
+        <f>1/(0.38*71%)</f>
+        <v>3.7064492216456637</v>
+      </c>
+      <c r="J76" s="3">
+        <f>1/(0.3*71%)</f>
+        <v>4.694835680751174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="3">
+        <f>-1*B76</f>
+        <v>-4.1425020712510356</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>64</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77" s="7">
+        <f>B77</f>
+        <v>-4.1425020712510356</v>
+      </c>
+      <c r="I77" s="3">
+        <f>-1/(0.3*71%)</f>
+        <v>-4.694835680751174</v>
+      </c>
+      <c r="J77" s="3">
+        <f>-1/(0.38*71%)</f>
+        <v>-3.7064492216456637</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="str">
+        <f>B80</f>
+        <v>market for battery capacity, redox-flow, Vanadium, stationary</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="str">
+        <f>B85</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="str">
+        <f>B84</f>
+        <v>battery capacity, redox-flow, Vanadium</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="3">
+        <f>1/(0.0194)</f>
+        <v>51.546391752577321</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90" s="7">
+        <f>B90</f>
+        <v>51.546391752577321</v>
+      </c>
+      <c r="I90" s="3">
+        <f>1/(0.02)</f>
+        <v>50</v>
+      </c>
+      <c r="J90" s="3">
+        <f>1/(0.06)</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="3">
+        <f>-1*B90</f>
+        <v>-51.546391752577321</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
+        <v>106</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91" s="7">
+        <f>B91</f>
+        <v>-51.546391752577321</v>
+      </c>
+      <c r="I91" s="3">
+        <f>-1/(0.06)</f>
+        <v>-16.666666666666668</v>
+      </c>
+      <c r="J91" s="3">
+        <f>-1/(0.02)</f>
+        <v>-50</v>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B92" s="3"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B93" s="3"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="str">
+        <f>B94</f>
+        <v>market for battery capacity, lead acid, rechargeable, stationary</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="str">
+        <f>B99</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="str">
+        <f>B98</f>
+        <v>battery capacity, lead acid</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="3">
+        <f>1/0.03</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>111</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+      <c r="H104" s="7">
+        <f>B104</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I104" s="3">
+        <f>1/(0.027)</f>
+        <v>37.037037037037038</v>
+      </c>
+      <c r="J104" s="3">
+        <f>1/(0.032)</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" s="3">
+        <f>-1*B104</f>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>113</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105" s="7">
+        <f>B105</f>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="I105" s="3">
+        <f>-J104</f>
+        <v>-31.25</v>
+      </c>
+      <c r="J105" s="3">
+        <f>-I104</f>
+        <v>-37.037037037037038</v>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B106" s="3"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>49</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114">
+        <f>1-0.25</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="str">
+        <f>B108</f>
+        <v>market for battery capacity, Sodium-ion, SiB, stationary</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="str">
+        <f>B113</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="str">
+        <f>B112</f>
+        <v>battery capacity, Sodium-ion, SiB</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>47</v>
+      </c>
+      <c r="B118" s="3">
+        <f>1/(0.16*75%)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>48</v>
+      </c>
+      <c r="G118">
+        <v>5</v>
+      </c>
+      <c r="H118" s="7">
+        <f>B118</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="I118" s="3">
+        <f>1/(0.22*75%)</f>
+        <v>6.0606060606060606</v>
+      </c>
+      <c r="J118" s="3">
+        <f>1/(0.16*75%)</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" s="3">
+        <f>-1*B118</f>
+        <v>-8.3333333333333339</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" t="s">
+        <v>64</v>
+      </c>
+      <c r="G119">
+        <v>5</v>
+      </c>
+      <c r="H119" s="7">
+        <f>B119</f>
+        <v>-8.3333333333333339</v>
+      </c>
+      <c r="I119" s="3">
+        <f>-1/(0.16*75%)</f>
+        <v>-8.3333333333333339</v>
+      </c>
+      <c r="J119" s="3">
+        <f>-1/(0.22*75%)</f>
+        <v>-6.0606060606060606</v>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+    </row>
+    <row r="121" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="str">
+        <f>B121</f>
+        <v>market for battery capacity, Sodium-Nickel-Chloride, Na-NiCl, stationary</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="str">
+        <f>B123</f>
+        <v>GLO</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="str">
+        <f>B125</f>
+        <v>battery capacity, Na-NiCl</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" s="3">
+        <f>1/0.116</f>
+        <v>8.6206896551724128</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>51</v>
+      </c>
+      <c r="G131">
+        <v>5</v>
+      </c>
+      <c r="H131" s="7">
+        <f>B131</f>
+        <v>8.6206896551724128</v>
+      </c>
+      <c r="I131" s="7">
+        <f>B131*0.75</f>
+        <v>6.4655172413793096</v>
+      </c>
+      <c r="J131" s="7">
+        <f>B131*1.25</f>
+        <v>10.775862068965516</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>63</v>
+      </c>
+      <c r="B132" s="3">
+        <f>-1*B131</f>
+        <v>-8.6206896551724128</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" t="s">
+        <v>64</v>
+      </c>
+      <c r="G132">
+        <v>5</v>
+      </c>
+      <c r="H132" s="7">
+        <f>B132</f>
+        <v>-8.6206896551724128</v>
+      </c>
+      <c r="I132" s="7">
+        <f>B132*1.25</f>
+        <v>-10.775862068965516</v>
+      </c>
+      <c r="J132" s="7">
+        <f>B132*0.75</f>
+        <v>-6.4655172413793096</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B133" s="3"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+    </row>
+    <row r="135" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>124</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" t="str">
+        <f>B135</f>
+        <v>market for battery capacity, stationary (CONT scenario)</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>35</v>
+      </c>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B153" s="6">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" t="s">
+        <v>109</v>
+      </c>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+    </row>
+    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" t="str">
+        <f>B156</f>
+        <v>market for battery capacity, stationary (TC scenario)</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>35</v>
+      </c>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B174" s="6">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s">
+        <v>109</v>
+      </c>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="4"/>
+    </row>
+    <row r="178" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="4"/>
+    </row>
+    <row r="179" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="5"/>
+    </row>
+    <row r="181" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="6"/>
+    </row>
+    <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="6"/>
+    </row>
+    <row r="193" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="6"/>
+    </row>
+    <row r="194" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A194" s="6"/>
+    </row>
+    <row r="195" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A195" s="6"/>
+    </row>
+    <row r="196" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="6"/>
+    </row>
+    <row r="197" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" s="6"/>
+    </row>
+    <row r="198" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" s="6"/>
+    </row>
+    <row r="199" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="G199" s="6"/>
+    </row>
+    <row r="200" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A200" s="6"/>
+    </row>
+    <row r="201" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H170" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4FC347-EA2D-C849-AE76-02FF6614317C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CBD25A-E903-2945-8CE6-B8E5BCF92E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
     <sheet name="Battery - stationary" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$N$266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Battery - stationary'!$A$1:$N$204</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="111">
   <si>
     <t>Activity</t>
   </si>
@@ -89,9 +93,6 @@
     <t>market for battery capacity, Li-ion, LFP</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, LFP</t>
-  </si>
-  <si>
     <t>market for battery, Li-ion, LFP, rechargeable, prismatic</t>
   </si>
   <si>
@@ -110,18 +111,9 @@
     <t>market for battery capacity, Li-ion, NMC622</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, NMC111</t>
-  </si>
-  <si>
-    <t>battery capacity, Li-ion, NMC622</t>
-  </si>
-  <si>
     <t>market for battery capacity, Li-ion, NMC811</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, NMC811</t>
-  </si>
-  <si>
     <t>market for battery, Li-ion, NMC811, rechargeable, prismatic</t>
   </si>
   <si>
@@ -134,24 +126,15 @@
     <t>market for battery capacity, Li-ion, NCA</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, NCA</t>
-  </si>
-  <si>
     <t>market for battery, Li-ion, NCA, rechargeable, prismatic</t>
   </si>
   <si>
     <t>battery, Li-ion, NCA, rechargeable, prismatic</t>
   </si>
   <si>
-    <t>battery capacity</t>
-  </si>
-  <si>
     <t>market for battery capacity, Li-ion, LTO</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, LTO</t>
-  </si>
-  <si>
     <t>market for battery, Li-ion, LTO</t>
   </si>
   <si>
@@ -167,9 +150,6 @@
     <t>market for battery capacity, Li-ion, Li-O2</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, Li-O2</t>
-  </si>
-  <si>
     <t>market for battery, Li-oxygen, Li-O2</t>
   </si>
   <si>
@@ -185,9 +165,6 @@
     <t>battery, SiB</t>
   </si>
   <si>
-    <t>battery capacity, Sodium-ion, SiB</t>
-  </si>
-  <si>
     <t>market for battery, NaCl</t>
   </si>
   <si>
@@ -224,9 +201,6 @@
     <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion LMO battery. Specific energy density in 2020: 0.13 kWh/kg cell. Battery management (BoP) mass share: 13%. Battery energy density in 2020: 0.114 kWh/kg battery. Battery mass per kWh: 18.4 kg. Lifetime: 10'000 cycles. Source for parameters: Life cycle assessment of battery electric buses. Transportation Research Part D: Transport and Environment. Linda Ager-Wick Ellingsen, Rebecca Jayne Thorne, Julia Wind, Erik Figenbaum, Mia Romare and Anders Nordelöf.</t>
   </si>
   <si>
-    <t>battery capacity, Na-NiCl</t>
-  </si>
-  <si>
     <t>market for used Li-ion battery</t>
   </si>
   <si>
@@ -236,15 +210,9 @@
     <t>market for battery capacity, Li-ion, LiMn2O4</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, LiMn2O4</t>
-  </si>
-  <si>
     <t>market for battery capacity, Li-sulfur, Li-S</t>
   </si>
   <si>
-    <t>battery capacity, Li-sulfur, Li-S</t>
-  </si>
-  <si>
     <t>uncertainty type</t>
   </si>
   <si>
@@ -263,9 +231,6 @@
     <t>market for battery capacity, Li-ion, NMC523</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, NMC523</t>
-  </si>
-  <si>
     <t>market for battery, Li-ion, NMC523</t>
   </si>
   <si>
@@ -275,9 +240,6 @@
     <t>market for battery capacity, Li-ion, NMC955</t>
   </si>
   <si>
-    <t>battery capacity, Li-ion, NMC955</t>
-  </si>
-  <si>
     <t>market for battery, Li-ion, NMC955</t>
   </si>
   <si>
@@ -365,9 +327,6 @@
     <t>market for battery capacity, lead acid, rechargeable, stationary</t>
   </si>
   <si>
-    <t>battery capacity, lead acid</t>
-  </si>
-  <si>
     <t>market for battery, lead acid, rechargeable, stationary</t>
   </si>
   <si>
@@ -404,13 +363,16 @@
     <t>market for battery capacity, redox-flow, Vanadium, stationary</t>
   </si>
   <si>
-    <t>This dataset provides a market average for 1 kWh of battery gross capacity (NOT net). It is based on shares provided by Schlichenmaier &amp; Naegler (2022) https://doi.org/10.1016/j.egyr.2022.11.025</t>
-  </si>
-  <si>
-    <t>battery capacity, redox-flow, Vanadium</t>
-  </si>
-  <si>
     <t>Market shares provided by Schlichenmaier &amp; Naegler (2022) https://doi.org/10.1016/j.egyr.2022.11.025</t>
+  </si>
+  <si>
+    <t>This dataset provides a market average for 1 kWh of battery gross capacity (NOT net). It is based on shares provided by Schlichenmaier &amp; Naegler (2022) https://doi.org/10.1016/j.egyr.2022.11.025. Includes charging and discharging losses of 33%.</t>
+  </si>
+  <si>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
+    <t>market group for electricity, low voltage</t>
   </si>
 </sst>
 </file>
@@ -420,9 +382,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -492,18 +461,19 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -800,10 +770,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -819,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -843,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -857,7 +827,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <f>1-0.27</f>
@@ -890,19 +860,19 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -925,12 +895,12 @@
       </c>
       <c r="F12" t="str">
         <f>B7</f>
-        <v>battery capacity, Li-ion, LFP</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7">
         <f>1/(0.16*(1-27%))</f>
@@ -946,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -966,7 +936,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7">
         <f>-1*B13</f>
@@ -982,7 +952,7 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -1010,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1018,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1042,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1055,7 +1025,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <f>1-0.27</f>
@@ -1088,19 +1058,19 @@
         <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -1123,12 +1093,12 @@
       </c>
       <c r="F25" t="str">
         <f>B20</f>
-        <v>battery capacity, Li-ion, NMC111</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
         <f>1/(0.18*73%)</f>
@@ -1144,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -1164,7 +1134,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3">
         <f>-1*B26</f>
@@ -1180,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1208,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -1216,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1240,7 +1210,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -1253,7 +1223,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <f>1-0.27</f>
@@ -1286,19 +1256,19 @@
         <v>5</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -1321,12 +1291,12 @@
       </c>
       <c r="F38" t="str">
         <f>B33</f>
-        <v>battery capacity, Li-ion, NMC523</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B39" s="3">
         <f>1/(0.2*73%)</f>
@@ -1342,7 +1312,7 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -1362,7 +1332,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B40" s="3">
         <f>-1*B39</f>
@@ -1378,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -1406,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -1414,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -1438,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -1453,7 +1423,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <f>1-0.27</f>
@@ -1486,19 +1456,19 @@
         <v>5</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -1521,12 +1491,12 @@
       </c>
       <c r="F51" t="str">
         <f>B46</f>
-        <v>battery capacity, Li-ion, NMC622</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B52" s="3">
         <f>1/(0.24*73%)</f>
@@ -1542,7 +1512,7 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -1562,7 +1532,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3">
         <f>-1*B52</f>
@@ -1578,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -1606,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -1614,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -1638,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -1652,7 +1622,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -1684,19 +1654,19 @@
         <v>5</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -1719,12 +1689,12 @@
       </c>
       <c r="F64" t="str">
         <f>B59</f>
-        <v>battery capacity, Li-ion, NMC811</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B65" s="3">
         <f>1/(0.28*71%)</f>
@@ -1740,7 +1710,7 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G65">
         <v>5</v>
@@ -1760,7 +1730,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B66" s="3">
         <f>-1*B65</f>
@@ -1776,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G66">
         <v>5</v>
@@ -1804,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -1812,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -1836,7 +1806,7 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -1850,7 +1820,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B74">
         <f>1-0.29</f>
@@ -1882,19 +1852,19 @@
         <v>5</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -1917,12 +1887,12 @@
       </c>
       <c r="F77" t="str">
         <f>B72</f>
-        <v>battery capacity, Li-ion, NMC955</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B78" s="3">
         <f>1/(0.34*71%)</f>
@@ -1938,7 +1908,7 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G78">
         <v>5</v>
@@ -1958,7 +1928,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B79" s="3">
         <f>-1*B78</f>
@@ -1974,7 +1944,7 @@
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -2002,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -2010,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -2034,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -2048,7 +2018,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B87">
         <f>1-0.293</f>
@@ -2080,19 +2050,19 @@
         <v>5</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2115,12 +2085,12 @@
       </c>
       <c r="F90" t="str">
         <f>B85</f>
-        <v>battery capacity, Li-ion, NCA</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B91" s="3">
         <f>1/(0.28*71%)</f>
@@ -2136,7 +2106,7 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -2156,7 +2126,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B92" s="3">
         <f>-1*B91</f>
@@ -2172,7 +2142,7 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G92">
         <v>5</v>
@@ -2200,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -2208,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -2232,7 +2202,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -2246,7 +2216,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B100">
         <f>1-0.36</f>
@@ -2278,19 +2248,19 @@
         <v>5</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2313,12 +2283,12 @@
       </c>
       <c r="F103" t="str">
         <f>B98</f>
-        <v>battery capacity, Li-ion, LTO</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B104" s="3">
         <f>1/(0.085*64%)</f>
@@ -2334,7 +2304,7 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -2354,7 +2324,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B105" s="3">
         <f>-1*B104</f>
@@ -2370,7 +2340,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G105">
         <v>5</v>
@@ -2398,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -2406,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -2430,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -2444,7 +2414,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B113">
         <f>1-0.13</f>
@@ -2476,19 +2446,19 @@
         <v>5</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2511,12 +2481,12 @@
       </c>
       <c r="F116" t="str">
         <f>B111</f>
-        <v>battery capacity, Li-ion, LiMn2O4</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B117" s="3">
         <f>1/(32/280)</f>
@@ -2532,7 +2502,7 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G117">
         <v>5</v>
@@ -2552,7 +2522,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B118" s="3">
         <f>-1*B117</f>
@@ -2568,7 +2538,7 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -2596,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -2604,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -2628,7 +2598,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -2642,7 +2612,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B126">
         <f>1-0.25</f>
@@ -2674,19 +2644,19 @@
         <v>5</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2709,12 +2679,12 @@
       </c>
       <c r="F129" t="str">
         <f>B124</f>
-        <v>battery capacity, Li-sulfur, Li-S</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B130" s="3">
         <f>1/(0.15*75%)</f>
@@ -2730,7 +2700,7 @@
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G130">
         <v>5</v>
@@ -2750,7 +2720,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B131" s="3">
         <f>-1*B130</f>
@@ -2766,7 +2736,7 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G131">
         <v>5</v>
@@ -2794,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -2802,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -2826,7 +2796,7 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -2839,7 +2809,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B139">
         <f>1-0.45</f>
@@ -2871,19 +2841,19 @@
         <v>5</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2906,12 +2876,12 @@
       </c>
       <c r="F142" t="str">
         <f>B137</f>
-        <v>battery capacity, Li-ion, Li-O2</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B143" s="3">
         <f>1/0.198</f>
@@ -2927,7 +2897,7 @@
         <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G143">
         <v>5</v>
@@ -2947,7 +2917,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B144" s="3">
         <f>-1*B143</f>
@@ -2963,7 +2933,7 @@
         <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G144">
         <v>5</v>
@@ -2991,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
@@ -2999,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -3023,7 +2993,7 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="E150" s="3"/>
     </row>
@@ -3037,7 +3007,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B152">
         <f>1-0.25</f>
@@ -3069,19 +3039,19 @@
         <v>5</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -3104,12 +3074,12 @@
       </c>
       <c r="F155" t="str">
         <f>B150</f>
-        <v>battery capacity, Sodium-ion, SiB</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B156" s="3">
         <f>1/(0.16*75%)</f>
@@ -3125,7 +3095,7 @@
         <v>14</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G156">
         <v>5</v>
@@ -3145,7 +3115,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B157" s="3">
         <f>-1*B156</f>
@@ -3161,7 +3131,7 @@
         <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -3189,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
@@ -3197,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
@@ -3221,7 +3191,7 @@
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -3237,7 +3207,7 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -3271,19 +3241,19 @@
         <v>5</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -3306,12 +3276,12 @@
       </c>
       <c r="F168" t="str">
         <f>B163</f>
-        <v>battery capacity, Na-NiCl</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B169" s="3">
         <f>1/0.116</f>
@@ -3327,7 +3297,7 @@
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G169">
         <v>5</v>
@@ -3347,7 +3317,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B170" s="3">
         <f>-1*B169</f>
@@ -3363,7 +3333,7 @@
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G170">
         <v>5</v>
@@ -3391,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -3399,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -3423,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
@@ -3439,7 +3409,7 @@
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -3496,7 +3466,7 @@
         <v>13</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -3521,12 +3491,12 @@
         <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3541,12 +3511,12 @@
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3561,12 +3531,12 @@
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3581,12 +3551,12 @@
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3601,12 +3571,12 @@
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3621,12 +3591,12 @@
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3641,12 +3611,12 @@
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3661,12 +3631,12 @@
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3681,12 +3651,12 @@
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3701,12 +3671,12 @@
         <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3721,12 +3691,12 @@
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -3741,12 +3711,12 @@
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -3761,7 +3731,7 @@
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3769,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -3777,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -3801,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -3817,7 +3787,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
@@ -3874,7 +3844,7 @@
         <v>13</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -3899,12 +3869,12 @@
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -3919,12 +3889,12 @@
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -3939,12 +3909,12 @@
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -3959,12 +3929,12 @@
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -3979,12 +3949,12 @@
         <v>14</v>
       </c>
       <c r="F210" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -3999,12 +3969,12 @@
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -4019,12 +3989,12 @@
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -4039,12 +4009,12 @@
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -4059,12 +4029,12 @@
         <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -4079,12 +4049,12 @@
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -4099,12 +4069,12 @@
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -4119,12 +4089,12 @@
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -4139,7 +4109,7 @@
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4147,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -4155,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -4179,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -4195,7 +4165,7 @@
         <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
@@ -4252,7 +4222,7 @@
         <v>13</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -4277,12 +4247,12 @@
         <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -4297,12 +4267,12 @@
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -4317,12 +4287,12 @@
         <v>14</v>
       </c>
       <c r="F232" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -4337,12 +4307,12 @@
         <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -4357,12 +4327,12 @@
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -4377,12 +4347,12 @@
         <v>14</v>
       </c>
       <c r="F235" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -4397,12 +4367,12 @@
         <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -4417,12 +4387,12 @@
         <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -4437,12 +4407,12 @@
         <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -4457,12 +4427,12 @@
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -4477,12 +4447,12 @@
         <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -4497,12 +4467,12 @@
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -4517,7 +4487,7 @@
         <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4525,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
@@ -4533,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
@@ -4557,7 +4527,7 @@
         <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
@@ -4573,7 +4543,7 @@
         <v>8</v>
       </c>
       <c r="B250" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
@@ -4630,7 +4600,7 @@
         <v>13</v>
       </c>
       <c r="F253" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -4655,12 +4625,12 @@
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -4675,12 +4645,12 @@
         <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -4695,12 +4665,12 @@
         <v>14</v>
       </c>
       <c r="F256" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -4715,12 +4685,12 @@
         <v>14</v>
       </c>
       <c r="F257" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -4735,12 +4705,12 @@
         <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -4755,12 +4725,12 @@
         <v>14</v>
       </c>
       <c r="F259" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -4775,12 +4745,12 @@
         <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -4795,12 +4765,12 @@
         <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -4815,12 +4785,12 @@
         <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -4835,12 +4805,12 @@
         <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -4855,12 +4825,12 @@
         <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -4875,12 +4845,12 @@
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -4895,10 +4865,11 @@
         <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N266" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4906,10 +4877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}">
-  <dimension ref="A1:N203"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4924,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -4932,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -4956,7 +4927,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4970,7 +4941,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <f>1-0.27</f>
@@ -5003,19 +4974,19 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -5038,12 +5009,12 @@
       </c>
       <c r="F10" t="str">
         <f>B5</f>
-        <v>battery capacity, Li-ion, LFP</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7">
         <f>1/(0.16*(1-27%))</f>
@@ -5059,7 +5030,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -5079,7 +5050,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B12" s="7">
         <f>-1*B11</f>
@@ -5095,7 +5066,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -5123,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -5131,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -5155,7 +5126,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -5168,7 +5139,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <f>1-0.27</f>
@@ -5201,19 +5172,19 @@
         <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -5236,12 +5207,12 @@
       </c>
       <c r="F23" t="str">
         <f>B18</f>
-        <v>battery capacity, Li-ion, NMC111</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3">
         <f>1/(0.18*73%)</f>
@@ -5257,7 +5228,7 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -5277,7 +5248,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3">
         <f>-1*B24</f>
@@ -5293,7 +5264,7 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -5321,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -5329,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -5353,7 +5324,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -5366,7 +5337,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <f>1-0.27</f>
@@ -5399,19 +5370,19 @@
         <v>5</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -5434,12 +5405,12 @@
       </c>
       <c r="F36" t="str">
         <f>B31</f>
-        <v>battery capacity, Li-ion, NMC523</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B37" s="3">
         <f>1/(0.2*73%)</f>
@@ -5455,7 +5426,7 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -5475,7 +5446,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3">
         <f>-1*B37</f>
@@ -5491,7 +5462,7 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G38">
         <v>5</v>
@@ -5519,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -5527,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -5551,7 +5522,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -5566,7 +5537,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <f>1-0.27</f>
@@ -5599,19 +5570,19 @@
         <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -5634,12 +5605,12 @@
       </c>
       <c r="F49" t="str">
         <f>B44</f>
-        <v>battery capacity, Li-ion, NMC622</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B50" s="3">
         <f>1/(0.24*73%)</f>
@@ -5655,7 +5626,7 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -5675,7 +5646,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B51" s="3">
         <f>-1*B50</f>
@@ -5691,7 +5662,7 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -5719,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -5727,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -5751,7 +5722,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -5765,7 +5736,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -5797,19 +5768,19 @@
         <v>5</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -5832,12 +5803,12 @@
       </c>
       <c r="F62" t="str">
         <f>B57</f>
-        <v>battery capacity, Li-ion, NMC811</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B63" s="3">
         <f>1/(0.28*71%)</f>
@@ -5853,7 +5824,7 @@
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -5873,7 +5844,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B64" s="3">
         <f>-1*B63</f>
@@ -5889,7 +5860,7 @@
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G64">
         <v>5</v>
@@ -5917,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -5925,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -5949,7 +5920,7 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -5963,7 +5934,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B72">
         <f>1-0.29</f>
@@ -5995,19 +5966,19 @@
         <v>5</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -6030,12 +6001,12 @@
       </c>
       <c r="F75" t="str">
         <f>B70</f>
-        <v>battery capacity, Li-ion, NMC955</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B76" s="3">
         <f>1/(0.34*71%)</f>
@@ -6051,7 +6022,7 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -6071,7 +6042,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B77" s="3">
         <f>-1*B76</f>
@@ -6087,7 +6058,7 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G77">
         <v>5</v>
@@ -6115,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -6123,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -6147,7 +6118,7 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E84" s="3"/>
     </row>
@@ -6161,7 +6132,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6192,19 +6163,19 @@
         <v>5</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -6227,12 +6198,12 @@
       </c>
       <c r="F89" t="str">
         <f>B84</f>
-        <v>battery capacity, redox-flow, Vanadium</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B90" s="3">
         <f>1/(0.0194)</f>
@@ -6248,7 +6219,7 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G90">
         <v>5</v>
@@ -6268,7 +6239,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B91" s="3">
         <f>-1*B90</f>
@@ -6284,7 +6255,7 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -6322,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -6330,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -6368,7 +6339,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -6399,19 +6370,19 @@
         <v>5</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -6434,12 +6405,12 @@
       </c>
       <c r="F103" t="str">
         <f>B98</f>
-        <v>battery capacity, lead acid</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B104" s="3">
         <f>1/0.03</f>
@@ -6455,7 +6426,7 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -6475,7 +6446,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B105" s="3">
         <f>-1*B104</f>
@@ -6491,7 +6462,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G105">
         <v>5</v>
@@ -6523,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -6531,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -6555,7 +6526,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="E112" s="3"/>
     </row>
@@ -6569,7 +6540,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B114">
         <f>1-0.25</f>
@@ -6601,19 +6572,19 @@
         <v>5</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -6636,12 +6607,12 @@
       </c>
       <c r="F117" t="str">
         <f>B112</f>
-        <v>battery capacity, Sodium-ion, SiB</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B118" s="3">
         <f>1/(0.16*75%)</f>
@@ -6657,7 +6628,7 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -6677,7 +6648,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B119" s="3">
         <f>-1*B118</f>
@@ -6693,7 +6664,7 @@
         <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G119">
         <v>5</v>
@@ -6721,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -6729,7 +6700,7 @@
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -6753,7 +6724,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -6769,7 +6740,7 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
@@ -6803,19 +6774,19 @@
         <v>5</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -6838,12 +6809,12 @@
       </c>
       <c r="F130" t="str">
         <f>B125</f>
-        <v>battery capacity, Na-NiCl</v>
+        <v>electricity, low voltage</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B131" s="3">
         <f>1/0.116</f>
@@ -6859,7 +6830,7 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>5</v>
@@ -6879,7 +6850,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B132" s="3">
         <f>-1*B131</f>
@@ -6895,7 +6866,7 @@
         <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G132">
         <v>5</v>
@@ -6927,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -6935,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -6959,7 +6930,7 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -6975,7 +6946,7 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
@@ -7040,8 +7011,9 @@
       <c r="E144" t="s">
         <v>13</v>
       </c>
-      <c r="F144" t="s">
-        <v>35</v>
+      <c r="F144" t="str">
+        <f>B139</f>
+        <v>electricity, low voltage</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -7051,7 +7023,7 @@
     </row>
     <row r="145" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -7066,12 +7038,12 @@
         <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -7086,12 +7058,12 @@
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -7106,12 +7078,12 @@
         <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -7126,12 +7098,12 @@
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -7146,12 +7118,12 @@
         <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -7166,12 +7138,12 @@
         <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7186,12 +7158,12 @@
         <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -7206,12 +7178,12 @@
         <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B153" s="6">
         <v>0</v>
@@ -7236,7 +7208,7 @@
     </row>
     <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7251,120 +7223,114 @@
         <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>1</v>
-      </c>
-      <c r="B157" t="s">
-        <v>122</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B155">
+        <v>0.33</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>8</v>
       </c>
-      <c r="B162" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
+      <c r="B163" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" t="str">
-        <f>B156</f>
-        <v>market for battery capacity, stationary (TC scenario)</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" t="s">
-        <v>3</v>
-      </c>
-      <c r="E165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
-        <v>35</v>
+      <c r="F165" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -7372,12 +7338,13 @@
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
-        <v>97</v>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" t="str">
+        <f>B157</f>
+        <v>market for battery capacity, stationary (TC scenario)</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="s">
         <v>15</v>
@@ -7386,15 +7353,21 @@
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>14</v>
-      </c>
-      <c r="F166" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F166" t="str">
+        <f>B161</f>
+        <v>electricity, low voltage</v>
+      </c>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
     </row>
     <row r="167" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -7409,12 +7382,12 @@
         <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -7429,12 +7402,12 @@
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -7449,12 +7422,12 @@
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -7469,12 +7442,12 @@
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -7489,12 +7462,12 @@
         <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -7509,12 +7482,12 @@
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -7529,14 +7502,14 @@
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B174" s="6">
+        <v>106</v>
+      </c>
+      <c r="B174">
         <v>0</v>
       </c>
       <c r="C174" t="s">
@@ -7551,14 +7524,12 @@
       <c r="F174" t="s">
         <v>109</v>
       </c>
-      <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B175">
+        <v>94</v>
+      </c>
+      <c r="B175" s="6">
         <v>0</v>
       </c>
       <c r="C175" t="s">
@@ -7571,30 +7542,63 @@
         <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>62</v>
+        <v>109</v>
+      </c>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="4"/>
+      <c r="A177" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B177">
+        <v>0.33</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="178" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
     </row>
     <row r="179" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="5"/>
-    </row>
-    <row r="181" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
+      <c r="A179" s="4"/>
+    </row>
+    <row r="180" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="5"/>
+    </row>
+    <row r="182" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
@@ -7604,20 +7608,26 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="6"/>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
     </row>
     <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="6"/>
@@ -7642,22 +7652,26 @@
     </row>
     <row r="199" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
-      <c r="G199" s="6"/>
     </row>
     <row r="200" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="6"/>
+      <c r="B200" s="6"/>
+      <c r="G200" s="6"/>
     </row>
     <row r="201" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="4"/>
+      <c r="A201" s="6"/>
     </row>
     <row r="202" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
     </row>
     <row r="203" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="5"/>
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N204" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CBD25A-E903-2945-8CE6-B8E5BCF92E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E883C0AF-51F8-5E43-ABF0-9A5C7FFB13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Battery - NMC'!$A$1:$N$266</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Battery - stationary'!$A$1:$N$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Battery - stationary'!$A$1:$N$203</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="115">
   <si>
     <t>Activity</t>
   </si>
@@ -373,6 +373,18 @@
   </si>
   <si>
     <t>market group for electricity, low voltage</t>
+  </si>
+  <si>
+    <t>electricity storage capacity</t>
+  </si>
+  <si>
+    <t>electricity supply, from stationary battery (CONT scenario)</t>
+  </si>
+  <si>
+    <t>This dataset provides a market average for 1 kWh of battery gross capacity (NOT net). It is based on shares provided by Schlichenmaier &amp; Naegler (2022) https://doi.org/10.1016/j.egyr.2022.11.025.</t>
+  </si>
+  <si>
+    <t>This dataset provides a kilowatt hour from a stationary battery system. Assumed lifetime : 2'500 cycles, or 2'500 kWh. Min: 1'500 cycles. Max: 5'000 cycles. Includes charging and discharging losses of 33%.</t>
   </si>
 </sst>
 </file>
@@ -758,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="F253" sqref="F253:F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -813,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -895,7 +907,7 @@
       </c>
       <c r="F12" t="str">
         <f>B7</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1012,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1093,7 +1105,7 @@
       </c>
       <c r="F25" t="str">
         <f>B20</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1210,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -1291,7 +1303,7 @@
       </c>
       <c r="F38" t="str">
         <f>B33</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -1408,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -1491,7 +1503,7 @@
       </c>
       <c r="F51" t="str">
         <f>B46</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -1608,7 +1620,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -1689,7 +1701,7 @@
       </c>
       <c r="F64" t="str">
         <f>B59</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -1806,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -1887,7 +1899,7 @@
       </c>
       <c r="F77" t="str">
         <f>B72</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -2004,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -2085,7 +2097,7 @@
       </c>
       <c r="F90" t="str">
         <f>B85</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -2202,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -2283,7 +2295,7 @@
       </c>
       <c r="F103" t="str">
         <f>B98</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -2400,7 +2412,7 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -2481,7 +2493,7 @@
       </c>
       <c r="F116" t="str">
         <f>B111</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -2598,7 +2610,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -2679,7 +2691,7 @@
       </c>
       <c r="F129" t="str">
         <f>B124</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -2796,7 +2808,7 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -2876,7 +2888,7 @@
       </c>
       <c r="F142" t="str">
         <f>B137</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -2993,7 +3005,7 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E150" s="3"/>
     </row>
@@ -3074,7 +3086,7 @@
       </c>
       <c r="F155" t="str">
         <f>B150</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
@@ -3191,7 +3203,7 @@
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -3276,7 +3288,7 @@
       </c>
       <c r="F168" t="str">
         <f>B163</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -3393,7 +3405,7 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
@@ -3466,7 +3478,7 @@
         <v>13</v>
       </c>
       <c r="F181" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -3491,7 +3503,7 @@
         <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3511,7 +3523,7 @@
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3531,7 +3543,7 @@
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3551,7 +3563,7 @@
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3571,7 +3583,7 @@
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3591,7 +3603,7 @@
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3611,7 +3623,7 @@
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3631,7 +3643,7 @@
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3651,7 +3663,7 @@
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3671,7 +3683,7 @@
         <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3691,7 +3703,7 @@
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3711,7 +3723,7 @@
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3731,7 +3743,7 @@
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3771,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -3844,7 +3856,7 @@
         <v>13</v>
       </c>
       <c r="F205" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -3869,7 +3881,7 @@
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3889,7 +3901,7 @@
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3909,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3929,7 +3941,7 @@
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3949,7 +3961,7 @@
         <v>14</v>
       </c>
       <c r="F210" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3969,7 +3981,7 @@
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3989,7 +4001,7 @@
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4009,7 +4021,7 @@
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4029,7 +4041,7 @@
         <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4049,7 +4061,7 @@
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4069,7 +4081,7 @@
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4089,7 +4101,7 @@
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4109,7 +4121,7 @@
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4149,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -4222,7 +4234,7 @@
         <v>13</v>
       </c>
       <c r="F229" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -4247,7 +4259,7 @@
         <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4267,7 +4279,7 @@
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4287,7 +4299,7 @@
         <v>14</v>
       </c>
       <c r="F232" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4307,7 +4319,7 @@
         <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4327,7 +4339,7 @@
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4347,7 +4359,7 @@
         <v>14</v>
       </c>
       <c r="F235" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4367,7 +4379,7 @@
         <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4387,7 +4399,7 @@
         <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4407,7 +4419,7 @@
         <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4427,7 +4439,7 @@
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4447,7 +4459,7 @@
         <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4467,7 +4479,7 @@
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4487,7 +4499,7 @@
         <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4527,7 +4539,7 @@
         <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
@@ -4600,7 +4612,7 @@
         <v>13</v>
       </c>
       <c r="F253" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -4625,7 +4637,7 @@
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4645,7 +4657,7 @@
         <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4665,7 +4677,7 @@
         <v>14</v>
       </c>
       <c r="F256" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4685,7 +4697,7 @@
         <v>14</v>
       </c>
       <c r="F257" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4705,7 +4717,7 @@
         <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4725,7 +4737,7 @@
         <v>14</v>
       </c>
       <c r="F259" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4745,7 +4757,7 @@
         <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4765,7 +4777,7 @@
         <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4785,7 +4797,7 @@
         <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4805,7 +4817,7 @@
         <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4825,7 +4837,7 @@
         <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4845,7 +4857,7 @@
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4865,7 +4877,7 @@
         <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4877,10 +4889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}">
-  <dimension ref="A1:N204"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="J189" sqref="J189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4927,7 +4939,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -5009,7 +5021,7 @@
       </c>
       <c r="F10" t="str">
         <f>B5</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5126,7 +5138,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -5207,7 +5219,7 @@
       </c>
       <c r="F23" t="str">
         <f>B18</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -5324,7 +5336,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -5405,7 +5417,7 @@
       </c>
       <c r="F36" t="str">
         <f>B31</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -5522,7 +5534,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -5605,7 +5617,7 @@
       </c>
       <c r="F49" t="str">
         <f>B44</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -5722,7 +5734,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -5803,7 +5815,7 @@
       </c>
       <c r="F62" t="str">
         <f>B57</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -5920,7 +5932,7 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -6001,7 +6013,7 @@
       </c>
       <c r="F75" t="str">
         <f>B70</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -6118,7 +6130,7 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="3"/>
     </row>
@@ -6198,7 +6210,7 @@
       </c>
       <c r="F89" t="str">
         <f>B84</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -6229,12 +6241,12 @@
         <v>51.546391752577321</v>
       </c>
       <c r="I90" s="3">
-        <f>1/(0.02)</f>
-        <v>50</v>
-      </c>
-      <c r="J90" s="3">
         <f>1/(0.06)</f>
         <v>16.666666666666668</v>
+      </c>
+      <c r="J90" s="3">
+        <f>1/(0.019)</f>
+        <v>52.631578947368425</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -6265,12 +6277,12 @@
         <v>-51.546391752577321</v>
       </c>
       <c r="I91" s="3">
-        <f>-1/(0.06)</f>
+        <f>-1*J90</f>
+        <v>-52.631578947368425</v>
+      </c>
+      <c r="J91" s="3">
+        <f>-1*I90</f>
         <v>-16.666666666666668</v>
-      </c>
-      <c r="J91" s="3">
-        <f>-1/(0.02)</f>
-        <v>-50</v>
       </c>
       <c r="K91" t="b">
         <v>1</v>
@@ -6325,7 +6337,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -6405,7 +6417,7 @@
       </c>
       <c r="F103" t="str">
         <f>B98</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -6436,12 +6448,12 @@
         <v>33.333333333333336</v>
       </c>
       <c r="I104" s="3">
+        <f>1/(0.032)</f>
+        <v>31.25</v>
+      </c>
+      <c r="J104" s="3">
         <f>1/(0.027)</f>
         <v>37.037037037037038</v>
-      </c>
-      <c r="J104" s="3">
-        <f>1/(0.032)</f>
-        <v>31.25</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -6472,12 +6484,12 @@
         <v>-33.333333333333336</v>
       </c>
       <c r="I105" s="3">
-        <f>-J104</f>
+        <f>-1*J104</f>
+        <v>-37.037037037037038</v>
+      </c>
+      <c r="J105" s="3">
+        <f>-1*I104</f>
         <v>-31.25</v>
-      </c>
-      <c r="J105" s="3">
-        <f>-I104</f>
-        <v>-37.037037037037038</v>
       </c>
       <c r="K105" t="b">
         <v>1</v>
@@ -6526,7 +6538,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E112" s="3"/>
     </row>
@@ -6607,7 +6619,7 @@
       </c>
       <c r="F117" t="str">
         <f>B112</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -6724,7 +6736,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -6809,7 +6821,7 @@
       </c>
       <c r="F130" t="str">
         <f>B125</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
@@ -6930,7 +6942,7 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -7013,7 +7025,7 @@
       </c>
       <c r="F144" t="str">
         <f>B139</f>
-        <v>electricity, low voltage</v>
+        <v>electricity storage capacity</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -7038,7 +7050,7 @@
         <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7058,7 +7070,7 @@
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7078,7 +7090,7 @@
         <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7098,7 +7110,7 @@
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7118,7 +7130,7 @@
         <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7138,7 +7150,7 @@
         <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7158,7 +7170,7 @@
         <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7178,7 +7190,7 @@
         <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7198,7 +7210,7 @@
         <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
@@ -7223,114 +7235,121 @@
         <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B155">
-        <v>0.33</v>
-      </c>
-      <c r="C155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" t="s">
-        <v>3</v>
-      </c>
-      <c r="E155" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>2</v>
-      </c>
-      <c r="B159" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>8</v>
-      </c>
-      <c r="B163" t="s">
-        <v>107</v>
-      </c>
+      <c r="A163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>5</v>
+      <c r="A165" t="str">
+        <f>B156</f>
+        <v>market for battery capacity, stationary (TC scenario)</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="str">
+        <f>B160</f>
+        <v>electricity storage capacity</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -7338,13 +7357,12 @@
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" t="str">
-        <f>B157</f>
-        <v>market for battery capacity, stationary (TC scenario)</v>
+    <row r="166" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="s">
         <v>15</v>
@@ -7353,21 +7371,15 @@
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" t="str">
-        <f>B161</f>
-        <v>electricity, low voltage</v>
-      </c>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F166" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="167" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -7382,12 +7394,12 @@
         <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -7402,12 +7414,12 @@
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -7422,12 +7434,12 @@
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -7442,12 +7454,12 @@
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -7462,12 +7474,12 @@
         <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -7482,12 +7494,12 @@
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -7502,14 +7514,14 @@
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B174">
+        <v>94</v>
+      </c>
+      <c r="B174" s="6">
         <v>0</v>
       </c>
       <c r="C174" t="s">
@@ -7522,14 +7534,16 @@
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>109</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B175" s="6">
+        <v>100</v>
+      </c>
+      <c r="B175">
         <v>0</v>
       </c>
       <c r="C175" t="s">
@@ -7542,63 +7556,217 @@
         <v>14</v>
       </c>
       <c r="F175" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
         <v>109</v>
       </c>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-    </row>
-    <row r="176" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176" t="s">
-        <v>15</v>
-      </c>
-      <c r="D176" t="s">
-        <v>3</v>
-      </c>
-      <c r="E176" t="s">
-        <v>14</v>
-      </c>
-      <c r="F176" t="s">
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>107</v>
+      </c>
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183"/>
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="K183"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K185" s="1"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" t="str">
+        <f>B177</f>
+        <v>electricity supply, from stationary battery (CONT scenario)</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="str">
+        <f>B181</f>
+        <v>electricity, low voltage</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+    </row>
+    <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B187">
+        <f>1/2500</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" t="s">
+        <v>111</v>
+      </c>
+      <c r="G187">
+        <v>5</v>
+      </c>
+      <c r="H187">
+        <f>B187</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I187">
+        <f>1/5000</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J187">
+        <f>1/1500</f>
+        <v>6.6666666666666664E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B188">
+        <v>0.33</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B177">
+      <c r="G188">
+        <v>5</v>
+      </c>
+      <c r="H188">
+        <f>B188</f>
         <v>0.33</v>
       </c>
-      <c r="C177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D177" t="s">
-        <v>3</v>
-      </c>
-      <c r="E177" t="s">
-        <v>14</v>
-      </c>
-      <c r="F177" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A178" s="4"/>
-    </row>
-    <row r="179" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="4"/>
-    </row>
-    <row r="180" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="5"/>
-    </row>
-    <row r="182" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
+      <c r="I188">
+        <v>0.25</v>
+      </c>
+      <c r="J188">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
@@ -7608,26 +7776,20 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
+    <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="6"/>
     </row>
     <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="6"/>
@@ -7652,26 +7814,23 @@
     </row>
     <row r="199" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6"/>
+      <c r="B199" s="6"/>
+      <c r="G199" s="6"/>
     </row>
     <row r="200" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="6"/>
-      <c r="B200" s="6"/>
-      <c r="G200" s="6"/>
     </row>
     <row r="201" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="6"/>
+      <c r="A201" s="4"/>
     </row>
     <row r="202" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
     </row>
     <row r="203" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="4"/>
-    </row>
-    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="5"/>
+      <c r="A203" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N204" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}"/>
+  <autoFilter ref="A1:N203" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E883C0AF-51F8-5E43-ABF0-9A5C7FFB13D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4290815-5539-434A-B68F-C88551189D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="F253" sqref="F253:F266"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2722,12 +2722,12 @@
         <v>8.8888888888888893</v>
       </c>
       <c r="I130" s="3">
-        <f>1/(0.5*75%)</f>
-        <v>2.6666666666666665</v>
+        <f>1/(0.18*75%)</f>
+        <v>7.4074074074074066</v>
       </c>
       <c r="J130" s="3">
-        <f>1/(0.14*75%)</f>
-        <v>9.5238095238095237</v>
+        <f>1/(0.12*75%)</f>
+        <v>11.111111111111111</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
@@ -2758,12 +2758,12 @@
         <v>-8.8888888888888893</v>
       </c>
       <c r="I131" s="3">
-        <f>-1/(0.14*75%)</f>
-        <v>-9.5238095238095237</v>
+        <f>-1/(0.12*75%)</f>
+        <v>-11.111111111111111</v>
       </c>
       <c r="J131" s="3">
-        <f>-1/(0.5*75%)</f>
-        <v>-2.6666666666666665</v>
+        <f>-1/(0.18*75%)</f>
+        <v>-7.4074074074074066</v>
       </c>
       <c r="K131" t="b">
         <v>1</v>
@@ -3117,12 +3117,12 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="I156" s="3">
-        <f>1/(0.22*75%)</f>
-        <v>6.0606060606060606</v>
+        <f>1/(0.18*75%)</f>
+        <v>7.4074074074074066</v>
       </c>
       <c r="J156" s="3">
-        <f>1/(0.16*75%)</f>
-        <v>8.3333333333333339</v>
+        <f>1/(0.12*75%)</f>
+        <v>11.111111111111111</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
@@ -3153,12 +3153,12 @@
         <v>-8.3333333333333339</v>
       </c>
       <c r="I157" s="3">
-        <f>-1/(0.16*75%)</f>
-        <v>-8.3333333333333339</v>
+        <f>-1/(0.12*75%)</f>
+        <v>-11.111111111111111</v>
       </c>
       <c r="J157" s="3">
-        <f>-1/(0.22*75%)</f>
-        <v>-6.0606060606060606</v>
+        <f>-1/(0.18*75%)</f>
+        <v>-7.4074074074074066</v>
       </c>
       <c r="K157" t="b">
         <v>1</v>
@@ -4891,8 +4891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}">
   <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="J189" sqref="J189"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="J120" sqref="J120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6650,12 +6650,12 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="I118" s="3">
-        <f>1/(0.22*75%)</f>
-        <v>6.0606060606060606</v>
+        <f>1/(0.18*75%)</f>
+        <v>7.4074074074074066</v>
       </c>
       <c r="J118" s="3">
-        <f>1/(0.16*75%)</f>
-        <v>8.3333333333333339</v>
+        <f>1/(0.12*75%)</f>
+        <v>11.111111111111111</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -6686,12 +6686,12 @@
         <v>-8.3333333333333339</v>
       </c>
       <c r="I119" s="3">
-        <f>-1/(0.16*75%)</f>
-        <v>-8.3333333333333339</v>
+        <f>-1/(0.12*75%)</f>
+        <v>-11.111111111111111</v>
       </c>
       <c r="J119" s="3">
-        <f>-1/(0.22*75%)</f>
-        <v>-6.0606060606060606</v>
+        <f>-1/(0.18*75%)</f>
+        <v>-7.4074074074074066</v>
       </c>
       <c r="K119" t="b">
         <v>1</v>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4290815-5539-434A-B68F-C88551189D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929081F9-5788-7C44-B5A7-717DC169D6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1040" windowWidth="25600" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3491,7 +3491,7 @@
         <v>16</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C182" t="s">
         <v>15</v>
@@ -3531,7 +3531,7 @@
         <v>62</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C184" t="s">
         <v>15</v>
@@ -3551,7 +3551,7 @@
         <v>22</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C185" t="s">
         <v>15</v>
@@ -3571,7 +3571,7 @@
         <v>23</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C186" t="s">
         <v>15</v>
@@ -3611,7 +3611,7 @@
         <v>27</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="C188" t="s">
         <v>15</v>
@@ -3869,7 +3869,7 @@
         <v>16</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C206" t="s">
         <v>15</v>
@@ -3909,7 +3909,7 @@
         <v>62</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C208" t="s">
         <v>15</v>
@@ -3929,7 +3929,7 @@
         <v>22</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C209" t="s">
         <v>15</v>
@@ -3949,7 +3949,7 @@
         <v>23</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C210" t="s">
         <v>15</v>
@@ -3989,7 +3989,7 @@
         <v>27</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="C212" t="s">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         <v>16</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C230" t="s">
         <v>15</v>
@@ -4287,7 +4287,7 @@
         <v>62</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C232" t="s">
         <v>15</v>
@@ -4307,7 +4307,7 @@
         <v>22</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C233" t="s">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         <v>23</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C234" t="s">
         <v>15</v>
@@ -4367,7 +4367,7 @@
         <v>27</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="C236" t="s">
         <v>15</v>
@@ -4625,7 +4625,7 @@
         <v>16</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C254" t="s">
         <v>15</v>
@@ -4665,7 +4665,7 @@
         <v>62</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C256" t="s">
         <v>15</v>
@@ -4685,7 +4685,7 @@
         <v>22</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C257" t="s">
         <v>15</v>
@@ -4705,7 +4705,7 @@
         <v>23</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C258" t="s">
         <v>15</v>
@@ -4745,7 +4745,7 @@
         <v>27</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="C260" t="s">
         <v>15</v>
@@ -4891,8 +4891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}">
   <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="J120" sqref="J120"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7038,7 +7038,7 @@
         <v>83</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
@@ -7058,7 +7058,7 @@
         <v>84</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
@@ -7098,7 +7098,7 @@
         <v>86</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C148" t="s">
         <v>15</v>
@@ -7118,7 +7118,7 @@
         <v>87</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
@@ -7178,7 +7178,7 @@
         <v>106</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
@@ -7198,7 +7198,7 @@
         <v>94</v>
       </c>
       <c r="B153" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C153" t="s">
         <v>15</v>
@@ -7223,7 +7223,7 @@
         <v>100</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C154" t="s">
         <v>15</v>
@@ -7362,7 +7362,7 @@
         <v>83</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C166" t="s">
         <v>15</v>
@@ -7382,7 +7382,7 @@
         <v>84</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="C167" t="s">
         <v>15</v>
@@ -7422,7 +7422,7 @@
         <v>86</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C169" t="s">
         <v>15</v>
@@ -7442,7 +7442,7 @@
         <v>87</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C170" t="s">
         <v>15</v>
@@ -7502,7 +7502,7 @@
         <v>106</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C173" t="s">
         <v>15</v>
@@ -7522,7 +7522,7 @@
         <v>94</v>
       </c>
       <c r="B174" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -7544,7 +7544,7 @@
         <v>100</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929081F9-5788-7C44-B5A7-717DC169D6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4290815-5539-434A-B68F-C88551189D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1040" windowWidth="25600" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3491,7 +3491,7 @@
         <v>16</v>
       </c>
       <c r="B182">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="C182" t="s">
         <v>15</v>
@@ -3531,7 +3531,7 @@
         <v>62</v>
       </c>
       <c r="B184">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C184" t="s">
         <v>15</v>
@@ -3551,7 +3551,7 @@
         <v>22</v>
       </c>
       <c r="B185">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C185" t="s">
         <v>15</v>
@@ -3571,7 +3571,7 @@
         <v>23</v>
       </c>
       <c r="B186">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C186" t="s">
         <v>15</v>
@@ -3611,7 +3611,7 @@
         <v>27</v>
       </c>
       <c r="B188">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C188" t="s">
         <v>15</v>
@@ -3869,7 +3869,7 @@
         <v>16</v>
       </c>
       <c r="B206">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="C206" t="s">
         <v>15</v>
@@ -3909,7 +3909,7 @@
         <v>62</v>
       </c>
       <c r="B208">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C208" t="s">
         <v>15</v>
@@ -3929,7 +3929,7 @@
         <v>22</v>
       </c>
       <c r="B209">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C209" t="s">
         <v>15</v>
@@ -3949,7 +3949,7 @@
         <v>23</v>
       </c>
       <c r="B210">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C210" t="s">
         <v>15</v>
@@ -3989,7 +3989,7 @@
         <v>27</v>
       </c>
       <c r="B212">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C212" t="s">
         <v>15</v>
@@ -4247,7 +4247,7 @@
         <v>16</v>
       </c>
       <c r="B230">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="C230" t="s">
         <v>15</v>
@@ -4287,7 +4287,7 @@
         <v>62</v>
       </c>
       <c r="B232">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C232" t="s">
         <v>15</v>
@@ -4307,7 +4307,7 @@
         <v>22</v>
       </c>
       <c r="B233">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C233" t="s">
         <v>15</v>
@@ -4327,7 +4327,7 @@
         <v>23</v>
       </c>
       <c r="B234">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C234" t="s">
         <v>15</v>
@@ -4367,7 +4367,7 @@
         <v>27</v>
       </c>
       <c r="B236">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C236" t="s">
         <v>15</v>
@@ -4625,7 +4625,7 @@
         <v>16</v>
       </c>
       <c r="B254">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="C254" t="s">
         <v>15</v>
@@ -4665,7 +4665,7 @@
         <v>62</v>
       </c>
       <c r="B256">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C256" t="s">
         <v>15</v>
@@ -4685,7 +4685,7 @@
         <v>22</v>
       </c>
       <c r="B257">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C257" t="s">
         <v>15</v>
@@ -4705,7 +4705,7 @@
         <v>23</v>
       </c>
       <c r="B258">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="C258" t="s">
         <v>15</v>
@@ -4745,7 +4745,7 @@
         <v>27</v>
       </c>
       <c r="B260">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C260" t="s">
         <v>15</v>
@@ -4891,8 +4891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}">
   <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="J120" sqref="J120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7038,7 +7038,7 @@
         <v>83</v>
       </c>
       <c r="B145">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
@@ -7058,7 +7058,7 @@
         <v>84</v>
       </c>
       <c r="B146">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
@@ -7098,7 +7098,7 @@
         <v>86</v>
       </c>
       <c r="B148">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C148" t="s">
         <v>15</v>
@@ -7118,7 +7118,7 @@
         <v>87</v>
       </c>
       <c r="B149">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
@@ -7178,7 +7178,7 @@
         <v>106</v>
       </c>
       <c r="B152">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
@@ -7198,7 +7198,7 @@
         <v>94</v>
       </c>
       <c r="B153" s="6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="s">
         <v>15</v>
@@ -7223,7 +7223,7 @@
         <v>100</v>
       </c>
       <c r="B154">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C154" t="s">
         <v>15</v>
@@ -7362,7 +7362,7 @@
         <v>83</v>
       </c>
       <c r="B166">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C166" t="s">
         <v>15</v>
@@ -7382,7 +7382,7 @@
         <v>84</v>
       </c>
       <c r="B167">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="C167" t="s">
         <v>15</v>
@@ -7422,7 +7422,7 @@
         <v>86</v>
       </c>
       <c r="B169">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C169" t="s">
         <v>15</v>
@@ -7442,7 +7442,7 @@
         <v>87</v>
       </c>
       <c r="B170">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C170" t="s">
         <v>15</v>
@@ -7502,7 +7502,7 @@
         <v>106</v>
       </c>
       <c r="B173">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C173" t="s">
         <v>15</v>
@@ -7522,7 +7522,7 @@
         <v>94</v>
       </c>
       <c r="B174" s="6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -7544,7 +7544,7 @@
         <v>100</v>
       </c>
       <c r="B175">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929081F9-5788-7C44-B5A7-717DC169D6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDE3F92-10D4-6F4D-8BAF-167EB7E4E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1040" windowWidth="25600" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37440" yWindow="400" windowWidth="25600" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - NMC" sheetId="1" r:id="rId1"/>
@@ -228,15 +228,6 @@
     <t>negative</t>
   </si>
   <si>
-    <t>market for battery capacity, Li-ion, NMC523</t>
-  </si>
-  <si>
-    <t>market for battery, Li-ion, NMC523</t>
-  </si>
-  <si>
-    <t>battery, Li-ion, NMC523</t>
-  </si>
-  <si>
     <t>market for battery capacity, Li-ion, NMC955</t>
   </si>
   <si>
@@ -252,9 +243,6 @@
     <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC111 battery. Specific cell energy density in 2020: (min, mean, max) 0.150, 0.180, 0.190 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.13 kWh/kg battery. Battery mass per kWh: 7.6 kg. Lifetime: 1'000-1'800 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
   </si>
   <si>
-    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC523 battery. Specific energy density in 2020: (min, mean, max) 0.170, 0.200, 0.220 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.150 kWh/kg battery. Battery mass per kWh: 6.95 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
-  </si>
-  <si>
     <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC622 battery. Specific energy density in 2020: (min, mean, max) 0.200, 0.240, 0.280 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.180 kWh/kg battery. Battery mass per kWh: 6.85 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
   </si>
   <si>
@@ -297,9 +285,6 @@
     <t>market for battery capacity, Li-ion, NMC111, stationary</t>
   </si>
   <si>
-    <t>market for battery capacity, Li-ion, NMC523, stationary</t>
-  </si>
-  <si>
     <t>market for battery capacity, Li-ion, NMC622, stationary</t>
   </si>
   <si>
@@ -385,6 +370,21 @@
   </si>
   <si>
     <t>This dataset provides a kilowatt hour from a stationary battery system. Assumed lifetime : 2'500 cycles, or 2'500 kWh. Min: 1'500 cycles. Max: 5'000 cycles. Includes charging and discharging losses of 33%.</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC532</t>
+  </si>
+  <si>
+    <t>This dataset provides 1 kWh of battery gross capacity (NOT net), using a Li-ion NMC532 battery. Specific energy density in 2020: (min, mean, max) 0.170, 0.200, 0.220 kWh/kg cell. Battery management (BoP) mass share: 27%. Battery energy density in 2020: 0.150 kWh/kg battery. Battery mass per kWh: 6.95 kg. Lifetime: 1'000-1'500 cycles. Source for parameters: Hasselwander, S.; Meyer, M.; Österle, I. Techno-Economic Analysis of Different Battery Cell Chemistries for the Passenger Vehicle Market. Batteries 2023, 9, 379. https://doi.org/10.3390/batteries9070379.</t>
+  </si>
+  <si>
+    <t>market for battery, Li-ion, NMC532</t>
+  </si>
+  <si>
+    <t>battery, Li-ion, NMC532</t>
+  </si>
+  <si>
+    <t>market for battery capacity, Li-ion, NMC532, stationary</t>
   </si>
 </sst>
 </file>
@@ -770,22 +770,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A270" sqref="A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.5" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -801,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -825,7 +826,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1000,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1024,7 +1025,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1190,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -1198,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1222,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -1286,7 +1287,7 @@
     <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="str">
         <f>B29</f>
-        <v>market for battery capacity, Li-ion, NMC523</v>
+        <v>market for battery capacity, Li-ion, NMC532</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1308,7 +1309,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="B39" s="3">
         <f>1/(0.2*73%)</f>
@@ -1324,7 +1325,7 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -1396,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -1420,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -1596,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -1620,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -1786,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -1794,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -1818,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -1904,7 +1905,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B78" s="3">
         <f>1/(0.34*71%)</f>
@@ -1920,7 +1921,7 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G78">
         <v>5</v>
@@ -1992,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -2016,7 +2017,7 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -2214,7 +2215,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -2412,7 +2413,7 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -2586,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -2610,7 +2611,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -2808,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -2981,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -3005,7 +3006,7 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E150" s="3"/>
     </row>
@@ -3203,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -3373,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -3381,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -3405,7 +3406,7 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
@@ -3421,7 +3422,7 @@
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -3478,7 +3479,7 @@
         <v>13</v>
       </c>
       <c r="F181" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -3503,7 +3504,7 @@
         <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3523,12 +3524,12 @@
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B184">
         <v>0.17</v>
@@ -3543,7 +3544,7 @@
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3563,7 +3564,7 @@
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3583,12 +3584,12 @@
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3603,7 +3604,7 @@
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3623,7 +3624,7 @@
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3643,7 +3644,7 @@
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3663,7 +3664,7 @@
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3683,7 +3684,7 @@
         <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3703,7 +3704,7 @@
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3723,7 +3724,7 @@
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3743,7 +3744,7 @@
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3751,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -3759,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -3783,7 +3784,7 @@
         <v>5</v>
       </c>
       <c r="B200" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -3799,7 +3800,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
@@ -3856,7 +3857,7 @@
         <v>13</v>
       </c>
       <c r="F205" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -3881,7 +3882,7 @@
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3901,12 +3902,12 @@
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B208">
         <v>0.17</v>
@@ -3921,7 +3922,7 @@
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3941,7 +3942,7 @@
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3961,12 +3962,12 @@
         <v>14</v>
       </c>
       <c r="F210" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -3981,7 +3982,7 @@
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4001,7 +4002,7 @@
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4021,7 +4022,7 @@
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4041,7 +4042,7 @@
         <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4061,7 +4062,7 @@
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4081,7 +4082,7 @@
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4101,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4121,7 +4122,7 @@
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4129,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -4137,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -4161,7 +4162,7 @@
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
@@ -4177,7 +4178,7 @@
         <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
@@ -4234,7 +4235,7 @@
         <v>13</v>
       </c>
       <c r="F229" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -4259,7 +4260,7 @@
         <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4279,12 +4280,12 @@
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B232">
         <v>0.17</v>
@@ -4299,7 +4300,7 @@
         <v>14</v>
       </c>
       <c r="F232" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4319,7 +4320,7 @@
         <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4339,12 +4340,12 @@
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -4359,7 +4360,7 @@
         <v>14</v>
       </c>
       <c r="F235" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4379,7 +4380,7 @@
         <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4399,7 +4400,7 @@
         <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4419,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4439,7 +4440,7 @@
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4459,7 +4460,7 @@
         <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4479,7 +4480,7 @@
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4499,7 +4500,7 @@
         <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4507,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
@@ -4515,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
@@ -4539,7 +4540,7 @@
         <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
@@ -4555,7 +4556,7 @@
         <v>8</v>
       </c>
       <c r="B250" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
@@ -4612,7 +4613,7 @@
         <v>13</v>
       </c>
       <c r="F253" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -4637,7 +4638,7 @@
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -4657,12 +4658,12 @@
         <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B256">
         <v>0.17</v>
@@ -4677,7 +4678,7 @@
         <v>14</v>
       </c>
       <c r="F256" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4697,7 +4698,7 @@
         <v>14</v>
       </c>
       <c r="F257" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4717,12 +4718,12 @@
         <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -4737,7 +4738,7 @@
         <v>14</v>
       </c>
       <c r="F259" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4757,7 +4758,7 @@
         <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4777,7 +4778,7 @@
         <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4797,7 +4798,7 @@
         <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4817,7 +4818,7 @@
         <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4837,7 +4838,7 @@
         <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4857,7 +4858,7 @@
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4877,7 +4878,7 @@
         <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4891,8 +4892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}">
   <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4907,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -4915,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -4939,7 +4940,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -5106,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -5114,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -5138,7 +5139,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -5304,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -5312,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -5336,7 +5337,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -5400,7 +5401,7 @@
     <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="str">
         <f>B27</f>
-        <v>market for battery capacity, Li-ion, NMC523, stationary</v>
+        <v>market for battery capacity, Li-ion, NMC532, stationary</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5422,7 +5423,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="B37" s="3">
         <f>1/(0.2*73%)</f>
@@ -5438,7 +5439,7 @@
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -5502,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -5510,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -5534,7 +5535,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -5702,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -5710,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -5734,7 +5735,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -5900,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -5908,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -5932,7 +5933,7 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -6018,7 +6019,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B76" s="3">
         <f>1/(0.34*71%)</f>
@@ -6034,7 +6035,7 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -6098,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -6106,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -6130,7 +6131,7 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E84" s="3"/>
     </row>
@@ -6215,7 +6216,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B90" s="3">
         <f>1/(0.0194)</f>
@@ -6231,7 +6232,7 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G90">
         <v>5</v>
@@ -6251,7 +6252,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B91" s="3">
         <f>-1*B90</f>
@@ -6267,7 +6268,7 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -6305,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -6313,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -6337,7 +6338,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -6422,7 +6423,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B104" s="3">
         <f>1/0.03</f>
@@ -6438,7 +6439,7 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -6458,7 +6459,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B105" s="3">
         <f>-1*B104</f>
@@ -6474,7 +6475,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G105">
         <v>5</v>
@@ -6506,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
@@ -6514,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
@@ -6538,7 +6539,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E112" s="3"/>
     </row>
@@ -6704,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -6736,7 +6737,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -6910,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -6918,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -6942,7 +6943,7 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -6958,7 +6959,7 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C141"/>
       <c r="D141"/>
@@ -7035,7 +7036,7 @@
     </row>
     <row r="145" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B145">
         <v>0.4</v>
@@ -7050,12 +7051,12 @@
         <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B146">
         <v>0.24</v>
@@ -7070,12 +7071,12 @@
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -7090,12 +7091,12 @@
         <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B148">
         <v>0.13</v>
@@ -7110,12 +7111,12 @@
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B149">
         <v>0.03</v>
@@ -7130,12 +7131,12 @@
         <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -7150,12 +7151,12 @@
         <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7170,12 +7171,12 @@
         <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B152">
         <v>0.05</v>
@@ -7190,12 +7191,12 @@
         <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B153" s="6">
         <v>0.1</v>
@@ -7210,7 +7211,7 @@
         <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
@@ -7220,7 +7221,7 @@
     </row>
     <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B154">
         <v>0.05</v>
@@ -7235,7 +7236,7 @@
         <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7243,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
@@ -7251,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
@@ -7275,7 +7276,7 @@
         <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
@@ -7291,7 +7292,7 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
@@ -7359,7 +7360,7 @@
     </row>
     <row r="166" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B166">
         <v>0.4</v>
@@ -7374,12 +7375,12 @@
         <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B167">
         <v>0.24</v>
@@ -7394,12 +7395,12 @@
         <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -7414,12 +7415,12 @@
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B169">
         <v>0.13</v>
@@ -7434,12 +7435,12 @@
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B170">
         <v>0.03</v>
@@ -7454,12 +7455,12 @@
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -7474,12 +7475,12 @@
         <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -7494,12 +7495,12 @@
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B173">
         <v>0.05</v>
@@ -7514,12 +7515,12 @@
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B174" s="6">
         <v>0.1</v>
@@ -7534,14 +7535,14 @@
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B175">
         <v>0.05</v>
@@ -7556,7 +7557,7 @@
         <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -7567,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
@@ -7575,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -7599,7 +7600,7 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -7615,7 +7616,7 @@
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C183"/>
       <c r="D183"/>
@@ -7701,7 +7702,7 @@
     </row>
     <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B187">
         <f>1/2500</f>
@@ -7717,7 +7718,7 @@
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G187">
         <v>5</v>
@@ -7737,7 +7738,7 @@
     </row>
     <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B188">
         <v>0.33</v>
@@ -7752,7 +7753,7 @@
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G188">
         <v>5</v>

--- a/premise/data/additional_inventories/lci-battery-capacity.xlsx
+++ b/premise/data/additional_inventories/lci-battery-capacity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDE3F92-10D4-6F4D-8BAF-167EB7E4E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F695C9D6-308E-D943-95CD-FA6782439EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37440" yWindow="400" windowWidth="25600" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="116">
   <si>
     <t>Activity</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>market for battery capacity, Li-ion, NMC532, stationary</t>
+  </si>
+  <si>
+    <t>Loss</t>
   </si>
 </sst>
 </file>
@@ -4892,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E327F433-64CA-4C75-A0BC-FFEEC2922B0D}">
   <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H190" sqref="H190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7670,7 +7673,9 @@
       <c r="J185" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K185" s="1"/>
+      <c r="K185" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
@@ -7768,19 +7773,32 @@
       <c r="J188">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
+      <c r="K188" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A189" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" t="s">
+        <v>104</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G190" s="1"/>
